--- a/demo/deadband/cases/IL200_dyn_db.xlsx
+++ b/demo/deadband/cases/IL200_dyn_db.xlsx
@@ -19,15 +19,15 @@
     <sheet name="TGOV1NDB" sheetId="10" r:id="rId10"/>
     <sheet name="SEXS" sheetId="11" r:id="rId11"/>
     <sheet name="BusFreq" sheetId="12" r:id="rId12"/>
-    <sheet name="PVD1" sheetId="13" r:id="rId13"/>
-    <sheet name="ESD1" sheetId="14" r:id="rId14"/>
+    <sheet name="PLL2" sheetId="13" r:id="rId13"/>
+    <sheet name="REGF2" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="924">
   <si>
     <t>idx</t>
   </si>
@@ -2570,148 +2570,163 @@
     <t>BusFreq_1</t>
   </si>
   <si>
-    <t>BusFreq_2</t>
-  </si>
-  <si>
-    <t>BusFreq_3</t>
-  </si>
-  <si>
-    <t>BusFreq_4</t>
-  </si>
-  <si>
-    <t>BusFreq_5</t>
-  </si>
-  <si>
-    <t>BusFreq_6</t>
-  </si>
-  <si>
-    <t>BusFreq_7</t>
-  </si>
-  <si>
-    <t>BusFreq_8</t>
-  </si>
-  <si>
-    <t>BusFreq_9</t>
-  </si>
-  <si>
-    <t>BusFreq_10</t>
-  </si>
-  <si>
-    <t>BusFreq_11</t>
-  </si>
-  <si>
-    <t>BusFreq_12</t>
-  </si>
-  <si>
-    <t>BusFreq_13</t>
-  </si>
-  <si>
-    <t>BusFreq_14</t>
-  </si>
-  <si>
-    <t>BusFreq_15</t>
-  </si>
-  <si>
-    <t>BusFreq_16</t>
-  </si>
-  <si>
-    <t>BusFreq_17</t>
-  </si>
-  <si>
-    <t>BusFreq_18</t>
-  </si>
-  <si>
-    <t>BusFreq_19</t>
-  </si>
-  <si>
-    <t>BusFreq_20</t>
-  </si>
-  <si>
-    <t>BusFreq_21</t>
-  </si>
-  <si>
-    <t>BusFreq_22</t>
-  </si>
-  <si>
-    <t>BusFreq_23</t>
-  </si>
-  <si>
-    <t>BusFreq_24</t>
-  </si>
-  <si>
-    <t>BusFreq_25</t>
-  </si>
-  <si>
-    <t>xc</t>
-  </si>
-  <si>
-    <t>pqflag</t>
-  </si>
-  <si>
-    <t>igreg</t>
-  </si>
-  <si>
-    <t>qmx</t>
-  </si>
-  <si>
-    <t>qmn</t>
-  </si>
-  <si>
-    <t>pmx</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>dqdv</t>
-  </si>
-  <si>
-    <t>fdbd</t>
-  </si>
-  <si>
-    <t>ddn</t>
-  </si>
-  <si>
-    <t>ialim</t>
-  </si>
-  <si>
-    <t>vt0</t>
-  </si>
-  <si>
-    <t>vt1</t>
-  </si>
-  <si>
-    <t>vt2</t>
-  </si>
-  <si>
-    <t>vt3</t>
-  </si>
-  <si>
-    <t>vrflag</t>
-  </si>
-  <si>
-    <t>ft0</t>
-  </si>
-  <si>
-    <t>ft1</t>
-  </si>
-  <si>
-    <t>ft2</t>
-  </si>
-  <si>
-    <t>ft3</t>
-  </si>
-  <si>
-    <t>frflag</t>
-  </si>
-  <si>
-    <t>tip</t>
-  </si>
-  <si>
-    <t>tiq</t>
-  </si>
-  <si>
-    <t>recflag</t>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>PLL2_1</t>
+  </si>
+  <si>
+    <t>PLL2_2</t>
+  </si>
+  <si>
+    <t>PLL2_3</t>
+  </si>
+  <si>
+    <t>PLL2_4</t>
+  </si>
+  <si>
+    <t>PLL2_5</t>
+  </si>
+  <si>
+    <t>PLL2_6</t>
+  </si>
+  <si>
+    <t>PLL2_7</t>
+  </si>
+  <si>
+    <t>PLL2_8</t>
+  </si>
+  <si>
+    <t>PLL2_9</t>
+  </si>
+  <si>
+    <t>PLL2_10</t>
+  </si>
+  <si>
+    <t>PLL2_11</t>
+  </si>
+  <si>
+    <t>PLL2_12</t>
+  </si>
+  <si>
+    <t>PLL2_13</t>
+  </si>
+  <si>
+    <t>PLL2_14</t>
+  </si>
+  <si>
+    <t>PLL2_15</t>
+  </si>
+  <si>
+    <t>PLL2_16</t>
+  </si>
+  <si>
+    <t>PLL2_17</t>
+  </si>
+  <si>
+    <t>PLL2_18</t>
+  </si>
+  <si>
+    <t>PLL2_19</t>
+  </si>
+  <si>
+    <t>PLL2_20</t>
+  </si>
+  <si>
+    <t>PLL2_21</t>
+  </si>
+  <si>
+    <t>PLL2_22</t>
+  </si>
+  <si>
+    <t>PLL2_23</t>
+  </si>
+  <si>
+    <t>PLL2_24</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>xf</t>
+  </si>
+  <si>
+    <t>Vdip</t>
+  </si>
+  <si>
+    <t>Tfrz</t>
+  </si>
+  <si>
+    <t>PQFLAG</t>
+  </si>
+  <si>
+    <t>dwmax</t>
+  </si>
+  <si>
+    <t>dwmin</t>
+  </si>
+  <si>
+    <t>wdrp</t>
+  </si>
+  <si>
+    <t>Qdrp</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>KPi</t>
+  </si>
+  <si>
+    <t>KIi</t>
+  </si>
+  <si>
+    <t>KPv</t>
+  </si>
+  <si>
+    <t>KIv</t>
+  </si>
+  <si>
+    <t>Pmax</t>
+  </si>
+  <si>
+    <t>Pmin</t>
+  </si>
+  <si>
+    <t>KPplim</t>
+  </si>
+  <si>
+    <t>KIplim</t>
+  </si>
+  <si>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>Qmin</t>
+  </si>
+  <si>
+    <t>KPqlim</t>
+  </si>
+  <si>
+    <t>KIqlim</t>
+  </si>
+  <si>
+    <t>Tpm</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>pll</t>
   </si>
   <si>
     <t>WT_1</t>
@@ -2778,24 +2793,6 @@
   </si>
   <si>
     <t>PV_10</t>
-  </si>
-  <si>
-    <t>SOCmin</t>
-  </si>
-  <si>
-    <t>SOCmax</t>
-  </si>
-  <si>
-    <t>SOCinit</t>
-  </si>
-  <si>
-    <t>En</t>
-  </si>
-  <si>
-    <t>EtaC</t>
-  </si>
-  <si>
-    <t>EtaD</t>
   </si>
   <si>
     <t>ESS_1</t>
@@ -16301,7 +16298,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16362,630 +16359,6 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>847</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>847</v>
-      </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-      <c r="F3">
-        <v>0.02</v>
-      </c>
-      <c r="G3">
-        <v>0.1</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>848</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>848</v>
-      </c>
-      <c r="E4">
-        <v>68</v>
-      </c>
-      <c r="F4">
-        <v>0.02</v>
-      </c>
-      <c r="G4">
-        <v>0.1</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>849</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>849</v>
-      </c>
-      <c r="E5">
-        <v>69</v>
-      </c>
-      <c r="F5">
-        <v>0.02</v>
-      </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>850</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>850</v>
-      </c>
-      <c r="E6">
-        <v>70</v>
-      </c>
-      <c r="F6">
-        <v>0.02</v>
-      </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-      <c r="H6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>851</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>851</v>
-      </c>
-      <c r="E7">
-        <v>71</v>
-      </c>
-      <c r="F7">
-        <v>0.02</v>
-      </c>
-      <c r="G7">
-        <v>0.1</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>852</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>852</v>
-      </c>
-      <c r="E8">
-        <v>72</v>
-      </c>
-      <c r="F8">
-        <v>0.02</v>
-      </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-      <c r="H8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>853</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>853</v>
-      </c>
-      <c r="E9">
-        <v>73</v>
-      </c>
-      <c r="F9">
-        <v>0.02</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>854</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>854</v>
-      </c>
-      <c r="E10">
-        <v>104</v>
-      </c>
-      <c r="F10">
-        <v>0.02</v>
-      </c>
-      <c r="G10">
-        <v>0.1</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>855</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>855</v>
-      </c>
-      <c r="E11">
-        <v>105</v>
-      </c>
-      <c r="F11">
-        <v>0.02</v>
-      </c>
-      <c r="G11">
-        <v>0.1</v>
-      </c>
-      <c r="H11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>856</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>856</v>
-      </c>
-      <c r="E12">
-        <v>114</v>
-      </c>
-      <c r="F12">
-        <v>0.02</v>
-      </c>
-      <c r="G12">
-        <v>0.1</v>
-      </c>
-      <c r="H12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>857</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>857</v>
-      </c>
-      <c r="E13">
-        <v>115</v>
-      </c>
-      <c r="F13">
-        <v>0.02</v>
-      </c>
-      <c r="G13">
-        <v>0.1</v>
-      </c>
-      <c r="H13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>858</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>858</v>
-      </c>
-      <c r="E14">
-        <v>147</v>
-      </c>
-      <c r="F14">
-        <v>0.02</v>
-      </c>
-      <c r="G14">
-        <v>0.1</v>
-      </c>
-      <c r="H14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>859</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>859</v>
-      </c>
-      <c r="E15">
-        <v>125</v>
-      </c>
-      <c r="F15">
-        <v>0.02</v>
-      </c>
-      <c r="G15">
-        <v>0.1</v>
-      </c>
-      <c r="H15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>860</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>860</v>
-      </c>
-      <c r="E16">
-        <v>126</v>
-      </c>
-      <c r="F16">
-        <v>0.02</v>
-      </c>
-      <c r="G16">
-        <v>0.1</v>
-      </c>
-      <c r="H16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>861</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>861</v>
-      </c>
-      <c r="E17">
-        <v>127</v>
-      </c>
-      <c r="F17">
-        <v>0.02</v>
-      </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>862</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>862</v>
-      </c>
-      <c r="E18">
-        <v>135</v>
-      </c>
-      <c r="F18">
-        <v>0.02</v>
-      </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>863</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>863</v>
-      </c>
-      <c r="E19">
-        <v>136</v>
-      </c>
-      <c r="F19">
-        <v>0.02</v>
-      </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
-      <c r="H19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>864</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>864</v>
-      </c>
-      <c r="E20">
-        <v>151</v>
-      </c>
-      <c r="F20">
-        <v>0.02</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-      <c r="H20">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>865</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>865</v>
-      </c>
-      <c r="E21">
-        <v>152</v>
-      </c>
-      <c r="F21">
-        <v>0.02</v>
-      </c>
-      <c r="G21">
-        <v>0.1</v>
-      </c>
-      <c r="H21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>866</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>866</v>
-      </c>
-      <c r="E22">
-        <v>153</v>
-      </c>
-      <c r="F22">
-        <v>0.02</v>
-      </c>
-      <c r="G22">
-        <v>0.1</v>
-      </c>
-      <c r="H22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>867</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>867</v>
-      </c>
-      <c r="E23">
-        <v>154</v>
-      </c>
-      <c r="F23">
-        <v>0.02</v>
-      </c>
-      <c r="G23">
-        <v>0.1</v>
-      </c>
-      <c r="H23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>868</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>868</v>
-      </c>
-      <c r="E24">
-        <v>155</v>
-      </c>
-      <c r="F24">
-        <v>0.02</v>
-      </c>
-      <c r="G24">
-        <v>0.1</v>
-      </c>
-      <c r="H24">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>869</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>869</v>
-      </c>
-      <c r="E25">
-        <v>76</v>
-      </c>
-      <c r="F25">
-        <v>0.02</v>
-      </c>
-      <c r="G25">
-        <v>0.1</v>
-      </c>
-      <c r="H25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>870</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>870</v>
-      </c>
-      <c r="E26">
-        <v>183</v>
-      </c>
-      <c r="F26">
-        <v>0.02</v>
-      </c>
-      <c r="G26">
-        <v>0.1</v>
-      </c>
-      <c r="H26">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16993,7 +16366,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17002,7 +16375,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -17019,2385 +16392,637 @@
         <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>657</v>
+        <v>387</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>377</v>
+        <v>847</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>895</v>
+        <v>849</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>895</v>
+        <v>849</v>
       </c>
       <c r="E2">
         <v>65</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>180.48</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>999</v>
-      </c>
-      <c r="N2">
-        <v>-999</v>
-      </c>
-      <c r="O2">
-        <v>999</v>
-      </c>
-      <c r="P2">
-        <v>0.8</v>
-      </c>
-      <c r="Q2">
-        <v>1.1</v>
-      </c>
-      <c r="R2">
-        <v>-1</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>999</v>
-      </c>
-      <c r="V2">
-        <v>0.88</v>
-      </c>
-      <c r="W2">
-        <v>0.9</v>
-      </c>
-      <c r="X2">
-        <v>1.1</v>
-      </c>
-      <c r="Y2">
-        <v>1.2</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>59.5</v>
-      </c>
-      <c r="AB2">
-        <v>59.7</v>
-      </c>
-      <c r="AC2">
-        <v>60.3</v>
-      </c>
-      <c r="AD2">
-        <v>60.5</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0.02</v>
-      </c>
-      <c r="AG2">
-        <v>0.02</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>896</v>
+        <v>850</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>896</v>
+        <v>850</v>
       </c>
       <c r="E3">
         <v>68</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>33.5</v>
+        <v>0.1</v>
       </c>
       <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>999</v>
-      </c>
-      <c r="N3">
-        <v>-999</v>
-      </c>
-      <c r="O3">
-        <v>999</v>
-      </c>
-      <c r="P3">
-        <v>0.8</v>
-      </c>
-      <c r="Q3">
-        <v>1.1</v>
-      </c>
-      <c r="R3">
-        <v>-1</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>999</v>
-      </c>
-      <c r="V3">
-        <v>0.88</v>
-      </c>
-      <c r="W3">
-        <v>0.9</v>
-      </c>
-      <c r="X3">
-        <v>1.1</v>
-      </c>
-      <c r="Y3">
-        <v>1.2</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>59.5</v>
-      </c>
-      <c r="AB3">
-        <v>59.7</v>
-      </c>
-      <c r="AC3">
-        <v>60.3</v>
-      </c>
-      <c r="AD3">
-        <v>60.5</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0.02</v>
-      </c>
-      <c r="AG3">
-        <v>0.02</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>897</v>
+        <v>851</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>897</v>
+        <v>851</v>
       </c>
       <c r="E4">
         <v>69</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>33.5</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>999</v>
-      </c>
-      <c r="N4">
-        <v>-999</v>
-      </c>
-      <c r="O4">
-        <v>999</v>
-      </c>
-      <c r="P4">
-        <v>0.8</v>
-      </c>
-      <c r="Q4">
-        <v>1.1</v>
-      </c>
-      <c r="R4">
-        <v>-1</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>999</v>
-      </c>
-      <c r="V4">
-        <v>0.88</v>
-      </c>
-      <c r="W4">
-        <v>0.9</v>
-      </c>
-      <c r="X4">
-        <v>1.1</v>
-      </c>
-      <c r="Y4">
-        <v>1.2</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>59.5</v>
-      </c>
-      <c r="AB4">
-        <v>59.7</v>
-      </c>
-      <c r="AC4">
-        <v>60.3</v>
-      </c>
-      <c r="AD4">
-        <v>60.5</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.02</v>
-      </c>
-      <c r="AG4">
-        <v>0.02</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>898</v>
+        <v>852</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>898</v>
+        <v>852</v>
       </c>
       <c r="E5">
         <v>70</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G5">
-        <v>33.5</v>
+        <v>0.1</v>
       </c>
       <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>999</v>
-      </c>
-      <c r="N5">
-        <v>-999</v>
-      </c>
-      <c r="O5">
-        <v>999</v>
-      </c>
-      <c r="P5">
-        <v>0.8</v>
-      </c>
-      <c r="Q5">
-        <v>1.1</v>
-      </c>
-      <c r="R5">
-        <v>-1</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>999</v>
-      </c>
-      <c r="V5">
-        <v>0.88</v>
-      </c>
-      <c r="W5">
-        <v>0.9</v>
-      </c>
-      <c r="X5">
-        <v>1.1</v>
-      </c>
-      <c r="Y5">
-        <v>1.2</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>59.5</v>
-      </c>
-      <c r="AB5">
-        <v>59.7</v>
-      </c>
-      <c r="AC5">
-        <v>60.3</v>
-      </c>
-      <c r="AD5">
-        <v>60.5</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0.02</v>
-      </c>
-      <c r="AG5">
-        <v>0.02</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>899</v>
+        <v>853</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>899</v>
+        <v>853</v>
       </c>
       <c r="E6">
         <v>71</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>33.5</v>
+        <v>0.1</v>
       </c>
       <c r="H6">
-        <v>60</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>999</v>
-      </c>
-      <c r="N6">
-        <v>-999</v>
-      </c>
-      <c r="O6">
-        <v>999</v>
-      </c>
-      <c r="P6">
-        <v>0.8</v>
-      </c>
-      <c r="Q6">
-        <v>1.1</v>
-      </c>
-      <c r="R6">
-        <v>-1</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>999</v>
-      </c>
-      <c r="V6">
-        <v>0.88</v>
-      </c>
-      <c r="W6">
-        <v>0.9</v>
-      </c>
-      <c r="X6">
-        <v>1.1</v>
-      </c>
-      <c r="Y6">
-        <v>1.2</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>59.5</v>
-      </c>
-      <c r="AB6">
-        <v>59.7</v>
-      </c>
-      <c r="AC6">
-        <v>60.3</v>
-      </c>
-      <c r="AD6">
-        <v>60.5</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0.02</v>
-      </c>
-      <c r="AG6">
-        <v>0.02</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>900</v>
+        <v>854</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>900</v>
+        <v>854</v>
       </c>
       <c r="E7">
         <v>72</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G7">
-        <v>33.5</v>
+        <v>0.1</v>
       </c>
       <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>999</v>
-      </c>
-      <c r="N7">
-        <v>-999</v>
-      </c>
-      <c r="O7">
-        <v>999</v>
-      </c>
-      <c r="P7">
-        <v>0.8</v>
-      </c>
-      <c r="Q7">
-        <v>1.1</v>
-      </c>
-      <c r="R7">
-        <v>-1</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>999</v>
-      </c>
-      <c r="V7">
-        <v>0.88</v>
-      </c>
-      <c r="W7">
-        <v>0.9</v>
-      </c>
-      <c r="X7">
-        <v>1.1</v>
-      </c>
-      <c r="Y7">
-        <v>1.2</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>59.5</v>
-      </c>
-      <c r="AB7">
-        <v>59.7</v>
-      </c>
-      <c r="AC7">
-        <v>60.3</v>
-      </c>
-      <c r="AD7">
-        <v>60.5</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0.02</v>
-      </c>
-      <c r="AG7">
-        <v>0.02</v>
-      </c>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>901</v>
+        <v>855</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>901</v>
+        <v>855</v>
       </c>
       <c r="E8">
         <v>73</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>33.5</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
-        <v>60</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>999</v>
-      </c>
-      <c r="N8">
-        <v>-999</v>
-      </c>
-      <c r="O8">
-        <v>999</v>
-      </c>
-      <c r="P8">
-        <v>0.8</v>
-      </c>
-      <c r="Q8">
-        <v>1.1</v>
-      </c>
-      <c r="R8">
-        <v>-1</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>999</v>
-      </c>
-      <c r="V8">
-        <v>0.88</v>
-      </c>
-      <c r="W8">
-        <v>0.9</v>
-      </c>
-      <c r="X8">
-        <v>1.1</v>
-      </c>
-      <c r="Y8">
-        <v>1.2</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>59.5</v>
-      </c>
-      <c r="AB8">
-        <v>59.7</v>
-      </c>
-      <c r="AC8">
-        <v>60.3</v>
-      </c>
-      <c r="AD8">
-        <v>60.5</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0.02</v>
-      </c>
-      <c r="AG8">
-        <v>0.02</v>
-      </c>
-      <c r="AH8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>902</v>
+        <v>856</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>902</v>
+        <v>856</v>
       </c>
       <c r="E9">
         <v>104</v>
       </c>
       <c r="F9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G9">
-        <v>118.8</v>
+        <v>0.1</v>
       </c>
       <c r="H9">
-        <v>60</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>999</v>
-      </c>
-      <c r="N9">
-        <v>-999</v>
-      </c>
-      <c r="O9">
-        <v>999</v>
-      </c>
-      <c r="P9">
-        <v>0.8</v>
-      </c>
-      <c r="Q9">
-        <v>1.1</v>
-      </c>
-      <c r="R9">
-        <v>-1</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>999</v>
-      </c>
-      <c r="V9">
-        <v>0.88</v>
-      </c>
-      <c r="W9">
-        <v>0.9</v>
-      </c>
-      <c r="X9">
-        <v>1.1</v>
-      </c>
-      <c r="Y9">
-        <v>1.2</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>59.5</v>
-      </c>
-      <c r="AB9">
-        <v>59.7</v>
-      </c>
-      <c r="AC9">
-        <v>60.3</v>
-      </c>
-      <c r="AD9">
-        <v>60.5</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0.02</v>
-      </c>
-      <c r="AG9">
-        <v>0.02</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
-        <v>1</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>903</v>
+        <v>857</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>903</v>
+        <v>857</v>
       </c>
       <c r="E10">
         <v>105</v>
       </c>
       <c r="F10">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G10">
-        <v>237.6</v>
+        <v>0.1</v>
       </c>
       <c r="H10">
-        <v>60</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>999</v>
-      </c>
-      <c r="N10">
-        <v>-999</v>
-      </c>
-      <c r="O10">
-        <v>999</v>
-      </c>
-      <c r="P10">
-        <v>0.8</v>
-      </c>
-      <c r="Q10">
-        <v>1.1</v>
-      </c>
-      <c r="R10">
-        <v>-1</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>999</v>
-      </c>
-      <c r="V10">
-        <v>0.88</v>
-      </c>
-      <c r="W10">
-        <v>0.9</v>
-      </c>
-      <c r="X10">
-        <v>1.1</v>
-      </c>
-      <c r="Y10">
-        <v>1.2</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>59.5</v>
-      </c>
-      <c r="AB10">
-        <v>59.7</v>
-      </c>
-      <c r="AC10">
-        <v>60.3</v>
-      </c>
-      <c r="AD10">
-        <v>60.5</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0.02</v>
-      </c>
-      <c r="AG10">
-        <v>0.02</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AI10">
-        <v>1</v>
-      </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>904</v>
+        <v>858</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>904</v>
+        <v>858</v>
       </c>
       <c r="E11">
         <v>114</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G11">
-        <v>2.04</v>
+        <v>0.1</v>
       </c>
       <c r="H11">
-        <v>60</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>999</v>
-      </c>
-      <c r="N11">
-        <v>-999</v>
-      </c>
-      <c r="O11">
-        <v>999</v>
-      </c>
-      <c r="P11">
-        <v>0.8</v>
-      </c>
-      <c r="Q11">
-        <v>1.1</v>
-      </c>
-      <c r="R11">
-        <v>-1</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>999</v>
-      </c>
-      <c r="V11">
-        <v>0.88</v>
-      </c>
-      <c r="W11">
-        <v>0.9</v>
-      </c>
-      <c r="X11">
-        <v>1.1</v>
-      </c>
-      <c r="Y11">
-        <v>1.2</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>59.5</v>
-      </c>
-      <c r="AB11">
-        <v>59.7</v>
-      </c>
-      <c r="AC11">
-        <v>60.3</v>
-      </c>
-      <c r="AD11">
-        <v>60.5</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0.02</v>
-      </c>
-      <c r="AG11">
-        <v>0.02</v>
-      </c>
-      <c r="AH11">
-        <v>1</v>
-      </c>
-      <c r="AI11">
-        <v>1</v>
-      </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>905</v>
+        <v>859</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>905</v>
+        <v>859</v>
       </c>
       <c r="E12">
         <v>115</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G12">
-        <v>180</v>
+        <v>0.1</v>
       </c>
       <c r="H12">
-        <v>60</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>999</v>
-      </c>
-      <c r="N12">
-        <v>-999</v>
-      </c>
-      <c r="O12">
-        <v>999</v>
-      </c>
-      <c r="P12">
-        <v>0.8</v>
-      </c>
-      <c r="Q12">
-        <v>1.1</v>
-      </c>
-      <c r="R12">
-        <v>-1</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>999</v>
-      </c>
-      <c r="V12">
-        <v>0.88</v>
-      </c>
-      <c r="W12">
-        <v>0.9</v>
-      </c>
-      <c r="X12">
-        <v>1.1</v>
-      </c>
-      <c r="Y12">
-        <v>1.2</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>59.5</v>
-      </c>
-      <c r="AB12">
-        <v>59.7</v>
-      </c>
-      <c r="AC12">
-        <v>60.3</v>
-      </c>
-      <c r="AD12">
-        <v>60.5</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0.02</v>
-      </c>
-      <c r="AG12">
-        <v>0.02</v>
-      </c>
-      <c r="AH12">
-        <v>1</v>
-      </c>
-      <c r="AI12">
-        <v>1</v>
-      </c>
-      <c r="AJ12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>906</v>
+        <v>860</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>906</v>
+        <v>860</v>
       </c>
       <c r="E13">
         <v>147</v>
       </c>
       <c r="F13">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G13">
-        <v>120.6</v>
+        <v>0.1</v>
       </c>
       <c r="H13">
-        <v>60</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>999</v>
-      </c>
-      <c r="N13">
-        <v>-999</v>
-      </c>
-      <c r="O13">
-        <v>999</v>
-      </c>
-      <c r="P13">
-        <v>0.8</v>
-      </c>
-      <c r="Q13">
-        <v>1.1</v>
-      </c>
-      <c r="R13">
-        <v>-1</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>999</v>
-      </c>
-      <c r="V13">
-        <v>0.88</v>
-      </c>
-      <c r="W13">
-        <v>0.9</v>
-      </c>
-      <c r="X13">
-        <v>1.1</v>
-      </c>
-      <c r="Y13">
-        <v>1.2</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>59.5</v>
-      </c>
-      <c r="AB13">
-        <v>59.7</v>
-      </c>
-      <c r="AC13">
-        <v>60.3</v>
-      </c>
-      <c r="AD13">
-        <v>60.5</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0.02</v>
-      </c>
-      <c r="AG13">
-        <v>0.02</v>
-      </c>
-      <c r="AH13">
-        <v>1</v>
-      </c>
-      <c r="AI13">
-        <v>1</v>
-      </c>
-      <c r="AJ13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>907</v>
+        <v>861</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>907</v>
+        <v>861</v>
       </c>
       <c r="E14">
         <v>125</v>
       </c>
       <c r="F14">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G14">
-        <v>156.06</v>
+        <v>0.1</v>
       </c>
       <c r="H14">
-        <v>60</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>999</v>
-      </c>
-      <c r="N14">
-        <v>-999</v>
-      </c>
-      <c r="O14">
-        <v>999</v>
-      </c>
-      <c r="P14">
-        <v>0.8</v>
-      </c>
-      <c r="Q14">
-        <v>1.1</v>
-      </c>
-      <c r="R14">
-        <v>-1</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>999</v>
-      </c>
-      <c r="V14">
-        <v>0.88</v>
-      </c>
-      <c r="W14">
-        <v>0.9</v>
-      </c>
-      <c r="X14">
-        <v>1.1</v>
-      </c>
-      <c r="Y14">
-        <v>1.2</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>59.5</v>
-      </c>
-      <c r="AB14">
-        <v>59.7</v>
-      </c>
-      <c r="AC14">
-        <v>60.3</v>
-      </c>
-      <c r="AD14">
-        <v>60.5</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0.02</v>
-      </c>
-      <c r="AG14">
-        <v>0.02</v>
-      </c>
-      <c r="AH14">
-        <v>1</v>
-      </c>
-      <c r="AI14">
-        <v>1</v>
-      </c>
-      <c r="AJ14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>908</v>
+        <v>862</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>908</v>
+        <v>862</v>
       </c>
       <c r="E15">
         <v>126</v>
       </c>
       <c r="F15">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G15">
-        <v>156.06</v>
+        <v>0.1</v>
       </c>
       <c r="H15">
-        <v>60</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>999</v>
-      </c>
-      <c r="N15">
-        <v>-999</v>
-      </c>
-      <c r="O15">
-        <v>999</v>
-      </c>
-      <c r="P15">
-        <v>0.8</v>
-      </c>
-      <c r="Q15">
-        <v>1.1</v>
-      </c>
-      <c r="R15">
-        <v>-1</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>999</v>
-      </c>
-      <c r="V15">
-        <v>0.88</v>
-      </c>
-      <c r="W15">
-        <v>0.9</v>
-      </c>
-      <c r="X15">
-        <v>1.1</v>
-      </c>
-      <c r="Y15">
-        <v>1.2</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>59.5</v>
-      </c>
-      <c r="AB15">
-        <v>59.7</v>
-      </c>
-      <c r="AC15">
-        <v>60.3</v>
-      </c>
-      <c r="AD15">
-        <v>60.5</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0.02</v>
-      </c>
-      <c r="AG15">
-        <v>0.02</v>
-      </c>
-      <c r="AH15">
-        <v>1</v>
-      </c>
-      <c r="AI15">
-        <v>1</v>
-      </c>
-      <c r="AJ15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>909</v>
+        <v>863</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>909</v>
+        <v>863</v>
       </c>
       <c r="E16">
         <v>127</v>
       </c>
       <c r="F16">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G16">
-        <v>156.06</v>
+        <v>0.1</v>
       </c>
       <c r="H16">
-        <v>60</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>999</v>
-      </c>
-      <c r="N16">
-        <v>-999</v>
-      </c>
-      <c r="O16">
-        <v>999</v>
-      </c>
-      <c r="P16">
-        <v>0.8</v>
-      </c>
-      <c r="Q16">
-        <v>1.1</v>
-      </c>
-      <c r="R16">
-        <v>-1</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>999</v>
-      </c>
-      <c r="V16">
-        <v>0.88</v>
-      </c>
-      <c r="W16">
-        <v>0.9</v>
-      </c>
-      <c r="X16">
-        <v>1.1</v>
-      </c>
-      <c r="Y16">
-        <v>1.2</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>59.5</v>
-      </c>
-      <c r="AB16">
-        <v>59.7</v>
-      </c>
-      <c r="AC16">
-        <v>60.3</v>
-      </c>
-      <c r="AD16">
-        <v>60.5</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0.02</v>
-      </c>
-      <c r="AG16">
-        <v>0.02</v>
-      </c>
-      <c r="AH16">
-        <v>1</v>
-      </c>
-      <c r="AI16">
-        <v>1</v>
-      </c>
-      <c r="AJ16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>910</v>
+        <v>864</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>910</v>
+        <v>864</v>
       </c>
       <c r="E17">
         <v>135</v>
       </c>
       <c r="F17">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G17">
-        <v>535.6799999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H17">
-        <v>60</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>999</v>
-      </c>
-      <c r="N17">
-        <v>-999</v>
-      </c>
-      <c r="O17">
-        <v>999</v>
-      </c>
-      <c r="P17">
-        <v>0.8</v>
-      </c>
-      <c r="Q17">
-        <v>1.1</v>
-      </c>
-      <c r="R17">
-        <v>-1</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>999</v>
-      </c>
-      <c r="V17">
-        <v>0.88</v>
-      </c>
-      <c r="W17">
-        <v>0.9</v>
-      </c>
-      <c r="X17">
-        <v>1.1</v>
-      </c>
-      <c r="Y17">
-        <v>1.2</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>59.5</v>
-      </c>
-      <c r="AB17">
-        <v>59.7</v>
-      </c>
-      <c r="AC17">
-        <v>60.3</v>
-      </c>
-      <c r="AD17">
-        <v>60.5</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0.02</v>
-      </c>
-      <c r="AG17">
-        <v>0.02</v>
-      </c>
-      <c r="AH17">
-        <v>1</v>
-      </c>
-      <c r="AI17">
-        <v>1</v>
-      </c>
-      <c r="AJ17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>911</v>
+        <v>865</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>911</v>
+        <v>865</v>
       </c>
       <c r="E18">
         <v>136</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G18">
-        <v>535.6799999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H18">
-        <v>60</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>999</v>
-      </c>
-      <c r="N18">
-        <v>-999</v>
-      </c>
-      <c r="O18">
-        <v>999</v>
-      </c>
-      <c r="P18">
-        <v>0.8</v>
-      </c>
-      <c r="Q18">
-        <v>1.1</v>
-      </c>
-      <c r="R18">
-        <v>-1</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>999</v>
-      </c>
-      <c r="V18">
-        <v>0.88</v>
-      </c>
-      <c r="W18">
-        <v>0.9</v>
-      </c>
-      <c r="X18">
-        <v>1.1</v>
-      </c>
-      <c r="Y18">
-        <v>1.2</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>59.5</v>
-      </c>
-      <c r="AB18">
-        <v>59.7</v>
-      </c>
-      <c r="AC18">
-        <v>60.3</v>
-      </c>
-      <c r="AD18">
-        <v>60.5</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0.02</v>
-      </c>
-      <c r="AG18">
-        <v>0.02</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
-      </c>
-      <c r="AI18">
-        <v>1</v>
-      </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>912</v>
+        <v>866</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>912</v>
+        <v>866</v>
       </c>
       <c r="E19">
         <v>151</v>
       </c>
       <c r="F19">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G19">
-        <v>6.48</v>
+        <v>0.1</v>
       </c>
       <c r="H19">
-        <v>60</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>999</v>
-      </c>
-      <c r="N19">
-        <v>-999</v>
-      </c>
-      <c r="O19">
-        <v>999</v>
-      </c>
-      <c r="P19">
-        <v>0.8</v>
-      </c>
-      <c r="Q19">
-        <v>1.1</v>
-      </c>
-      <c r="R19">
-        <v>-1</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>999</v>
-      </c>
-      <c r="V19">
-        <v>0.88</v>
-      </c>
-      <c r="W19">
-        <v>0.9</v>
-      </c>
-      <c r="X19">
-        <v>1.1</v>
-      </c>
-      <c r="Y19">
-        <v>1.2</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>59.5</v>
-      </c>
-      <c r="AB19">
-        <v>59.7</v>
-      </c>
-      <c r="AC19">
-        <v>60.3</v>
-      </c>
-      <c r="AD19">
-        <v>60.5</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0.02</v>
-      </c>
-      <c r="AG19">
-        <v>0.02</v>
-      </c>
-      <c r="AH19">
-        <v>1</v>
-      </c>
-      <c r="AI19">
-        <v>1</v>
-      </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>913</v>
+        <v>867</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>913</v>
+        <v>867</v>
       </c>
       <c r="E20">
         <v>152</v>
       </c>
       <c r="F20">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G20">
-        <v>92.67</v>
+        <v>0.1</v>
       </c>
       <c r="H20">
-        <v>60</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>999</v>
-      </c>
-      <c r="N20">
-        <v>-999</v>
-      </c>
-      <c r="O20">
-        <v>999</v>
-      </c>
-      <c r="P20">
-        <v>0.8</v>
-      </c>
-      <c r="Q20">
-        <v>1.1</v>
-      </c>
-      <c r="R20">
-        <v>-1</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>999</v>
-      </c>
-      <c r="V20">
-        <v>0.88</v>
-      </c>
-      <c r="W20">
-        <v>0.9</v>
-      </c>
-      <c r="X20">
-        <v>1.1</v>
-      </c>
-      <c r="Y20">
-        <v>1.2</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>59.5</v>
-      </c>
-      <c r="AB20">
-        <v>59.7</v>
-      </c>
-      <c r="AC20">
-        <v>60.3</v>
-      </c>
-      <c r="AD20">
-        <v>60.5</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0.02</v>
-      </c>
-      <c r="AG20">
-        <v>0.02</v>
-      </c>
-      <c r="AH20">
-        <v>1</v>
-      </c>
-      <c r="AI20">
-        <v>1</v>
-      </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>914</v>
+        <v>868</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>914</v>
+        <v>868</v>
       </c>
       <c r="E21">
         <v>153</v>
       </c>
       <c r="F21">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G21">
-        <v>92.67</v>
+        <v>0.1</v>
       </c>
       <c r="H21">
-        <v>60</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>999</v>
-      </c>
-      <c r="N21">
-        <v>-999</v>
-      </c>
-      <c r="O21">
-        <v>999</v>
-      </c>
-      <c r="P21">
-        <v>0.8</v>
-      </c>
-      <c r="Q21">
-        <v>1.1</v>
-      </c>
-      <c r="R21">
-        <v>-1</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>999</v>
-      </c>
-      <c r="V21">
-        <v>0.88</v>
-      </c>
-      <c r="W21">
-        <v>0.9</v>
-      </c>
-      <c r="X21">
-        <v>1.1</v>
-      </c>
-      <c r="Y21">
-        <v>1.2</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>59.5</v>
-      </c>
-      <c r="AB21">
-        <v>59.7</v>
-      </c>
-      <c r="AC21">
-        <v>60.3</v>
-      </c>
-      <c r="AD21">
-        <v>60.5</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0.02</v>
-      </c>
-      <c r="AG21">
-        <v>0.02</v>
-      </c>
-      <c r="AH21">
-        <v>1</v>
-      </c>
-      <c r="AI21">
-        <v>1</v>
-      </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>915</v>
+        <v>869</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>915</v>
+        <v>869</v>
       </c>
       <c r="E22">
         <v>154</v>
       </c>
       <c r="F22">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G22">
-        <v>92.67</v>
+        <v>0.1</v>
       </c>
       <c r="H22">
-        <v>60</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>999</v>
-      </c>
-      <c r="N22">
-        <v>-999</v>
-      </c>
-      <c r="O22">
-        <v>999</v>
-      </c>
-      <c r="P22">
-        <v>0.8</v>
-      </c>
-      <c r="Q22">
-        <v>1.1</v>
-      </c>
-      <c r="R22">
-        <v>-1</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>999</v>
-      </c>
-      <c r="V22">
-        <v>0.88</v>
-      </c>
-      <c r="W22">
-        <v>0.9</v>
-      </c>
-      <c r="X22">
-        <v>1.1</v>
-      </c>
-      <c r="Y22">
-        <v>1.2</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>59.5</v>
-      </c>
-      <c r="AB22">
-        <v>59.7</v>
-      </c>
-      <c r="AC22">
-        <v>60.3</v>
-      </c>
-      <c r="AD22">
-        <v>60.5</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0.02</v>
-      </c>
-      <c r="AG22">
-        <v>0.02</v>
-      </c>
-      <c r="AH22">
-        <v>1</v>
-      </c>
-      <c r="AI22">
-        <v>1</v>
-      </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>916</v>
+        <v>870</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>916</v>
+        <v>870</v>
       </c>
       <c r="E23">
         <v>155</v>
       </c>
       <c r="F23">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G23">
-        <v>92.67</v>
+        <v>0.1</v>
       </c>
       <c r="H23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>871</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>871</v>
+      </c>
+      <c r="E24">
+        <v>76</v>
+      </c>
+      <c r="F24">
         <v>60</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>999</v>
-      </c>
-      <c r="N23">
-        <v>-999</v>
-      </c>
-      <c r="O23">
-        <v>999</v>
-      </c>
-      <c r="P23">
-        <v>0.8</v>
-      </c>
-      <c r="Q23">
-        <v>1.1</v>
-      </c>
-      <c r="R23">
-        <v>-1</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>999</v>
-      </c>
-      <c r="V23">
-        <v>0.88</v>
-      </c>
-      <c r="W23">
-        <v>0.9</v>
-      </c>
-      <c r="X23">
-        <v>1.1</v>
-      </c>
-      <c r="Y23">
-        <v>1.2</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>59.5</v>
-      </c>
-      <c r="AB23">
-        <v>59.7</v>
-      </c>
-      <c r="AC23">
-        <v>60.3</v>
-      </c>
-      <c r="AD23">
-        <v>60.5</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0.02</v>
-      </c>
-      <c r="AG23">
-        <v>0.02</v>
-      </c>
-      <c r="AH23">
-        <v>1</v>
-      </c>
-      <c r="AI23">
-        <v>1</v>
-      </c>
-      <c r="AJ23">
-        <v>1</v>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>872</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>872</v>
+      </c>
+      <c r="E25">
+        <v>183</v>
+      </c>
+      <c r="F25">
+        <v>60</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -19407,7 +17032,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19416,7 +17041,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -19439,362 +17064,2734 @@
         <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>874</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>900</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="G2">
+        <v>180.48</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.2</v>
+      </c>
+      <c r="J2">
+        <v>0.8</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>60</v>
+      </c>
+      <c r="N2">
+        <v>75</v>
+      </c>
+      <c r="O2">
+        <v>-75</v>
+      </c>
+      <c r="P2">
+        <v>0.033</v>
+      </c>
+      <c r="Q2">
+        <v>0.045</v>
+      </c>
+      <c r="R2">
+        <v>0.005</v>
+      </c>
+      <c r="S2">
+        <v>0.005</v>
+      </c>
+      <c r="T2">
+        <v>0.5</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>999</v>
+      </c>
+      <c r="Y2">
+        <v>-999</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>30</v>
+      </c>
+      <c r="AB2">
+        <v>999</v>
+      </c>
+      <c r="AC2">
+        <v>-999</v>
+      </c>
+      <c r="AD2">
+        <v>0.1</v>
+      </c>
+      <c r="AE2">
+        <v>1.5</v>
+      </c>
+      <c r="AF2">
+        <v>0.025</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0.15</v>
+      </c>
+      <c r="AJ2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>901</v>
+      </c>
+      <c r="E3">
+        <v>68</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>33.5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>60</v>
+      </c>
+      <c r="N3">
+        <v>75</v>
+      </c>
+      <c r="O3">
+        <v>-75</v>
+      </c>
+      <c r="P3">
+        <v>0.033</v>
+      </c>
+      <c r="Q3">
+        <v>0.045</v>
+      </c>
+      <c r="R3">
+        <v>0.005</v>
+      </c>
+      <c r="S3">
+        <v>0.005</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>999</v>
+      </c>
+      <c r="Y3">
+        <v>-999</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>30</v>
+      </c>
+      <c r="AB3">
+        <v>999</v>
+      </c>
+      <c r="AC3">
+        <v>-999</v>
+      </c>
+      <c r="AD3">
+        <v>0.1</v>
+      </c>
+      <c r="AE3">
+        <v>1.5</v>
+      </c>
+      <c r="AF3">
+        <v>0.025</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0.15</v>
+      </c>
+      <c r="AJ3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>902</v>
+      </c>
+      <c r="E4">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>33.5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+      <c r="J4">
+        <v>0.8</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>60</v>
+      </c>
+      <c r="N4">
+        <v>75</v>
+      </c>
+      <c r="O4">
+        <v>-75</v>
+      </c>
+      <c r="P4">
+        <v>0.033</v>
+      </c>
+      <c r="Q4">
+        <v>0.045</v>
+      </c>
+      <c r="R4">
+        <v>0.005</v>
+      </c>
+      <c r="S4">
+        <v>0.005</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>20</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>999</v>
+      </c>
+      <c r="Y4">
+        <v>-999</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>30</v>
+      </c>
+      <c r="AB4">
+        <v>999</v>
+      </c>
+      <c r="AC4">
+        <v>-999</v>
+      </c>
+      <c r="AD4">
+        <v>0.1</v>
+      </c>
+      <c r="AE4">
+        <v>1.5</v>
+      </c>
+      <c r="AF4">
+        <v>0.025</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>0.15</v>
+      </c>
+      <c r="AJ4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>903</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>33.5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>0.8</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <v>75</v>
+      </c>
+      <c r="O5">
+        <v>-75</v>
+      </c>
+      <c r="P5">
+        <v>0.033</v>
+      </c>
+      <c r="Q5">
+        <v>0.045</v>
+      </c>
+      <c r="R5">
+        <v>0.005</v>
+      </c>
+      <c r="S5">
+        <v>0.005</v>
+      </c>
+      <c r="T5">
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>999</v>
+      </c>
+      <c r="Y5">
+        <v>-999</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>30</v>
+      </c>
+      <c r="AB5">
+        <v>999</v>
+      </c>
+      <c r="AC5">
+        <v>-999</v>
+      </c>
+      <c r="AD5">
+        <v>0.1</v>
+      </c>
+      <c r="AE5">
+        <v>1.5</v>
+      </c>
+      <c r="AF5">
+        <v>0.025</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>0.15</v>
+      </c>
+      <c r="AJ5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>904</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>904</v>
+      </c>
+      <c r="E6">
+        <v>71</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>33.5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <v>0.8</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>60</v>
+      </c>
+      <c r="N6">
+        <v>75</v>
+      </c>
+      <c r="O6">
+        <v>-75</v>
+      </c>
+      <c r="P6">
+        <v>0.033</v>
+      </c>
+      <c r="Q6">
+        <v>0.045</v>
+      </c>
+      <c r="R6">
+        <v>0.005</v>
+      </c>
+      <c r="S6">
+        <v>0.005</v>
+      </c>
+      <c r="T6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <v>20</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>999</v>
+      </c>
+      <c r="Y6">
+        <v>-999</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>30</v>
+      </c>
+      <c r="AB6">
+        <v>999</v>
+      </c>
+      <c r="AC6">
+        <v>-999</v>
+      </c>
+      <c r="AD6">
+        <v>0.1</v>
+      </c>
+      <c r="AE6">
+        <v>1.5</v>
+      </c>
+      <c r="AF6">
+        <v>0.025</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>0.15</v>
+      </c>
+      <c r="AJ6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>905</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>905</v>
+      </c>
+      <c r="E7">
+        <v>72</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>33.5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <v>0.8</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <v>75</v>
+      </c>
+      <c r="O7">
+        <v>-75</v>
+      </c>
+      <c r="P7">
+        <v>0.033</v>
+      </c>
+      <c r="Q7">
+        <v>0.045</v>
+      </c>
+      <c r="R7">
+        <v>0.005</v>
+      </c>
+      <c r="S7">
+        <v>0.005</v>
+      </c>
+      <c r="T7">
+        <v>0.5</v>
+      </c>
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>999</v>
+      </c>
+      <c r="Y7">
+        <v>-999</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <v>30</v>
+      </c>
+      <c r="AB7">
+        <v>999</v>
+      </c>
+      <c r="AC7">
+        <v>-999</v>
+      </c>
+      <c r="AD7">
+        <v>0.1</v>
+      </c>
+      <c r="AE7">
+        <v>1.5</v>
+      </c>
+      <c r="AF7">
+        <v>0.025</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>0.15</v>
+      </c>
+      <c r="AJ7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>906</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>906</v>
+      </c>
+      <c r="E8">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>33.5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+      <c r="J8">
+        <v>0.8</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <v>75</v>
+      </c>
+      <c r="O8">
+        <v>-75</v>
+      </c>
+      <c r="P8">
+        <v>0.033</v>
+      </c>
+      <c r="Q8">
+        <v>0.045</v>
+      </c>
+      <c r="R8">
+        <v>0.005</v>
+      </c>
+      <c r="S8">
+        <v>0.005</v>
+      </c>
+      <c r="T8">
+        <v>0.5</v>
+      </c>
+      <c r="U8">
+        <v>20</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
+        <v>999</v>
+      </c>
+      <c r="Y8">
+        <v>-999</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8">
+        <v>30</v>
+      </c>
+      <c r="AB8">
+        <v>999</v>
+      </c>
+      <c r="AC8">
+        <v>-999</v>
+      </c>
+      <c r="AD8">
+        <v>0.1</v>
+      </c>
+      <c r="AE8">
+        <v>1.5</v>
+      </c>
+      <c r="AF8">
+        <v>0.025</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0.15</v>
+      </c>
+      <c r="AJ8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>907</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>907</v>
+      </c>
+      <c r="E9">
+        <v>104</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>118.8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+      <c r="J9">
+        <v>0.8</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>60</v>
+      </c>
+      <c r="N9">
+        <v>75</v>
+      </c>
+      <c r="O9">
+        <v>-75</v>
+      </c>
+      <c r="P9">
+        <v>0.033</v>
+      </c>
+      <c r="Q9">
+        <v>0.045</v>
+      </c>
+      <c r="R9">
+        <v>0.005</v>
+      </c>
+      <c r="S9">
+        <v>0.005</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>20</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>999</v>
+      </c>
+      <c r="Y9">
+        <v>-999</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>30</v>
+      </c>
+      <c r="AB9">
+        <v>999</v>
+      </c>
+      <c r="AC9">
+        <v>-999</v>
+      </c>
+      <c r="AD9">
+        <v>0.1</v>
+      </c>
+      <c r="AE9">
+        <v>1.5</v>
+      </c>
+      <c r="AF9">
+        <v>0.025</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>0.15</v>
+      </c>
+      <c r="AJ9">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>908</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>908</v>
+      </c>
+      <c r="E10">
+        <v>105</v>
+      </c>
+      <c r="F10">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>237.6</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+      <c r="J10">
+        <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>75</v>
+      </c>
+      <c r="O10">
+        <v>-75</v>
+      </c>
+      <c r="P10">
+        <v>0.033</v>
+      </c>
+      <c r="Q10">
+        <v>0.045</v>
+      </c>
+      <c r="R10">
+        <v>0.005</v>
+      </c>
+      <c r="S10">
+        <v>0.005</v>
+      </c>
+      <c r="T10">
+        <v>0.5</v>
+      </c>
+      <c r="U10">
+        <v>20</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>999</v>
+      </c>
+      <c r="Y10">
+        <v>-999</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AA10">
+        <v>30</v>
+      </c>
+      <c r="AB10">
+        <v>999</v>
+      </c>
+      <c r="AC10">
+        <v>-999</v>
+      </c>
+      <c r="AD10">
+        <v>0.1</v>
+      </c>
+      <c r="AE10">
+        <v>1.5</v>
+      </c>
+      <c r="AF10">
+        <v>0.025</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>0.15</v>
+      </c>
+      <c r="AJ10">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>909</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>909</v>
+      </c>
+      <c r="E11">
+        <v>114</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>2.04</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+      <c r="J11">
+        <v>0.8</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>60</v>
+      </c>
+      <c r="N11">
+        <v>75</v>
+      </c>
+      <c r="O11">
+        <v>-75</v>
+      </c>
+      <c r="P11">
+        <v>0.033</v>
+      </c>
+      <c r="Q11">
+        <v>0.045</v>
+      </c>
+      <c r="R11">
+        <v>0.005</v>
+      </c>
+      <c r="S11">
+        <v>0.005</v>
+      </c>
+      <c r="T11">
+        <v>0.5</v>
+      </c>
+      <c r="U11">
+        <v>20</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>999</v>
+      </c>
+      <c r="Y11">
+        <v>-999</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>30</v>
+      </c>
+      <c r="AB11">
+        <v>999</v>
+      </c>
+      <c r="AC11">
+        <v>-999</v>
+      </c>
+      <c r="AD11">
+        <v>0.1</v>
+      </c>
+      <c r="AE11">
+        <v>1.5</v>
+      </c>
+      <c r="AF11">
+        <v>0.025</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>0.15</v>
+      </c>
+      <c r="AJ11">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>910</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>910</v>
+      </c>
+      <c r="E12">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>180</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+      <c r="J12">
+        <v>0.8</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>60</v>
+      </c>
+      <c r="N12">
+        <v>75</v>
+      </c>
+      <c r="O12">
+        <v>-75</v>
+      </c>
+      <c r="P12">
+        <v>0.033</v>
+      </c>
+      <c r="Q12">
+        <v>0.045</v>
+      </c>
+      <c r="R12">
+        <v>0.005</v>
+      </c>
+      <c r="S12">
+        <v>0.005</v>
+      </c>
+      <c r="T12">
+        <v>0.5</v>
+      </c>
+      <c r="U12">
+        <v>20</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>999</v>
+      </c>
+      <c r="Y12">
+        <v>-999</v>
+      </c>
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>30</v>
+      </c>
+      <c r="AB12">
+        <v>999</v>
+      </c>
+      <c r="AC12">
+        <v>-999</v>
+      </c>
+      <c r="AD12">
+        <v>0.1</v>
+      </c>
+      <c r="AE12">
+        <v>1.5</v>
+      </c>
+      <c r="AF12">
+        <v>0.025</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0.15</v>
+      </c>
+      <c r="AJ12">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>911</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>911</v>
+      </c>
+      <c r="E13">
+        <v>147</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>120.6</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+      <c r="J13">
+        <v>0.8</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>60</v>
+      </c>
+      <c r="N13">
+        <v>75</v>
+      </c>
+      <c r="O13">
+        <v>-75</v>
+      </c>
+      <c r="P13">
+        <v>0.033</v>
+      </c>
+      <c r="Q13">
+        <v>0.045</v>
+      </c>
+      <c r="R13">
+        <v>0.005</v>
+      </c>
+      <c r="S13">
+        <v>0.005</v>
+      </c>
+      <c r="T13">
+        <v>0.5</v>
+      </c>
+      <c r="U13">
+        <v>20</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <v>999</v>
+      </c>
+      <c r="Y13">
+        <v>-999</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>30</v>
+      </c>
+      <c r="AB13">
+        <v>999</v>
+      </c>
+      <c r="AC13">
+        <v>-999</v>
+      </c>
+      <c r="AD13">
+        <v>0.1</v>
+      </c>
+      <c r="AE13">
+        <v>1.5</v>
+      </c>
+      <c r="AF13">
+        <v>0.025</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>0.15</v>
+      </c>
+      <c r="AJ13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>912</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>912</v>
+      </c>
+      <c r="E14">
+        <v>125</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>156.06</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.2</v>
+      </c>
+      <c r="J14">
+        <v>0.8</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>60</v>
+      </c>
+      <c r="N14">
+        <v>75</v>
+      </c>
+      <c r="O14">
+        <v>-75</v>
+      </c>
+      <c r="P14">
+        <v>0.033</v>
+      </c>
+      <c r="Q14">
+        <v>0.045</v>
+      </c>
+      <c r="R14">
+        <v>0.005</v>
+      </c>
+      <c r="S14">
+        <v>0.005</v>
+      </c>
+      <c r="T14">
+        <v>0.5</v>
+      </c>
+      <c r="U14">
+        <v>20</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <v>999</v>
+      </c>
+      <c r="Y14">
+        <v>-999</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+      <c r="AA14">
+        <v>30</v>
+      </c>
+      <c r="AB14">
+        <v>999</v>
+      </c>
+      <c r="AC14">
+        <v>-999</v>
+      </c>
+      <c r="AD14">
+        <v>0.1</v>
+      </c>
+      <c r="AE14">
+        <v>1.5</v>
+      </c>
+      <c r="AF14">
+        <v>0.025</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>0.15</v>
+      </c>
+      <c r="AJ14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>913</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>913</v>
+      </c>
+      <c r="E15">
+        <v>126</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
+      </c>
+      <c r="G15">
+        <v>156.06</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.2</v>
+      </c>
+      <c r="J15">
+        <v>0.8</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>60</v>
+      </c>
+      <c r="N15">
+        <v>75</v>
+      </c>
+      <c r="O15">
+        <v>-75</v>
+      </c>
+      <c r="P15">
+        <v>0.033</v>
+      </c>
+      <c r="Q15">
+        <v>0.045</v>
+      </c>
+      <c r="R15">
+        <v>0.005</v>
+      </c>
+      <c r="S15">
+        <v>0.005</v>
+      </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>20</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>999</v>
+      </c>
+      <c r="Y15">
+        <v>-999</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AA15">
+        <v>30</v>
+      </c>
+      <c r="AB15">
+        <v>999</v>
+      </c>
+      <c r="AC15">
+        <v>-999</v>
+      </c>
+      <c r="AD15">
+        <v>0.1</v>
+      </c>
+      <c r="AE15">
+        <v>1.5</v>
+      </c>
+      <c r="AF15">
+        <v>0.025</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>0.15</v>
+      </c>
+      <c r="AJ15">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>914</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>914</v>
+      </c>
+      <c r="E16">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>156.06</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.2</v>
+      </c>
+      <c r="J16">
+        <v>0.8</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>60</v>
+      </c>
+      <c r="N16">
+        <v>75</v>
+      </c>
+      <c r="O16">
+        <v>-75</v>
+      </c>
+      <c r="P16">
+        <v>0.033</v>
+      </c>
+      <c r="Q16">
+        <v>0.045</v>
+      </c>
+      <c r="R16">
+        <v>0.005</v>
+      </c>
+      <c r="S16">
+        <v>0.005</v>
+      </c>
+      <c r="T16">
+        <v>0.5</v>
+      </c>
+      <c r="U16">
+        <v>20</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>999</v>
+      </c>
+      <c r="Y16">
+        <v>-999</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
+      </c>
+      <c r="AA16">
+        <v>30</v>
+      </c>
+      <c r="AB16">
+        <v>999</v>
+      </c>
+      <c r="AC16">
+        <v>-999</v>
+      </c>
+      <c r="AD16">
+        <v>0.1</v>
+      </c>
+      <c r="AE16">
+        <v>1.5</v>
+      </c>
+      <c r="AF16">
+        <v>0.025</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>0.15</v>
+      </c>
+      <c r="AJ16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>915</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>915</v>
+      </c>
+      <c r="E17">
+        <v>135</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>535.6799999999999</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+      <c r="J17">
+        <v>0.8</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>60</v>
+      </c>
+      <c r="N17">
+        <v>75</v>
+      </c>
+      <c r="O17">
+        <v>-75</v>
+      </c>
+      <c r="P17">
+        <v>0.033</v>
+      </c>
+      <c r="Q17">
+        <v>0.045</v>
+      </c>
+      <c r="R17">
+        <v>0.005</v>
+      </c>
+      <c r="S17">
+        <v>0.005</v>
+      </c>
+      <c r="T17">
+        <v>0.5</v>
+      </c>
+      <c r="U17">
+        <v>20</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>10</v>
+      </c>
+      <c r="X17">
+        <v>999</v>
+      </c>
+      <c r="Y17">
+        <v>-999</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+      <c r="AA17">
+        <v>30</v>
+      </c>
+      <c r="AB17">
+        <v>999</v>
+      </c>
+      <c r="AC17">
+        <v>-999</v>
+      </c>
+      <c r="AD17">
+        <v>0.1</v>
+      </c>
+      <c r="AE17">
+        <v>1.5</v>
+      </c>
+      <c r="AF17">
+        <v>0.025</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>0.15</v>
+      </c>
+      <c r="AJ17">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>916</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>916</v>
+      </c>
+      <c r="E18">
+        <v>136</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>535.6799999999999</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.2</v>
+      </c>
+      <c r="J18">
+        <v>0.8</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>60</v>
+      </c>
+      <c r="N18">
+        <v>75</v>
+      </c>
+      <c r="O18">
+        <v>-75</v>
+      </c>
+      <c r="P18">
+        <v>0.033</v>
+      </c>
+      <c r="Q18">
+        <v>0.045</v>
+      </c>
+      <c r="R18">
+        <v>0.005</v>
+      </c>
+      <c r="S18">
+        <v>0.005</v>
+      </c>
+      <c r="T18">
+        <v>0.5</v>
+      </c>
+      <c r="U18">
+        <v>20</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>10</v>
+      </c>
+      <c r="X18">
+        <v>999</v>
+      </c>
+      <c r="Y18">
+        <v>-999</v>
+      </c>
+      <c r="Z18">
+        <v>5</v>
+      </c>
+      <c r="AA18">
+        <v>30</v>
+      </c>
+      <c r="AB18">
+        <v>999</v>
+      </c>
+      <c r="AC18">
+        <v>-999</v>
+      </c>
+      <c r="AD18">
+        <v>0.1</v>
+      </c>
+      <c r="AE18">
+        <v>1.5</v>
+      </c>
+      <c r="AF18">
+        <v>0.025</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>0.15</v>
+      </c>
+      <c r="AJ18">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>917</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>917</v>
+      </c>
+      <c r="E19">
+        <v>151</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>6.48</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.2</v>
+      </c>
+      <c r="J19">
+        <v>0.8</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>60</v>
+      </c>
+      <c r="N19">
+        <v>75</v>
+      </c>
+      <c r="O19">
+        <v>-75</v>
+      </c>
+      <c r="P19">
+        <v>0.033</v>
+      </c>
+      <c r="Q19">
+        <v>0.045</v>
+      </c>
+      <c r="R19">
+        <v>0.005</v>
+      </c>
+      <c r="S19">
+        <v>0.005</v>
+      </c>
+      <c r="T19">
+        <v>0.5</v>
+      </c>
+      <c r="U19">
+        <v>20</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <v>999</v>
+      </c>
+      <c r="Y19">
+        <v>-999</v>
+      </c>
+      <c r="Z19">
+        <v>5</v>
+      </c>
+      <c r="AA19">
+        <v>30</v>
+      </c>
+      <c r="AB19">
+        <v>999</v>
+      </c>
+      <c r="AC19">
+        <v>-999</v>
+      </c>
+      <c r="AD19">
+        <v>0.1</v>
+      </c>
+      <c r="AE19">
+        <v>1.5</v>
+      </c>
+      <c r="AF19">
+        <v>0.025</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>0.15</v>
+      </c>
+      <c r="AJ19">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>918</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>918</v>
+      </c>
+      <c r="E20">
+        <v>152</v>
+      </c>
+      <c r="F20">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>92.67</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.2</v>
+      </c>
+      <c r="J20">
+        <v>0.8</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>60</v>
+      </c>
+      <c r="N20">
+        <v>75</v>
+      </c>
+      <c r="O20">
+        <v>-75</v>
+      </c>
+      <c r="P20">
+        <v>0.033</v>
+      </c>
+      <c r="Q20">
+        <v>0.045</v>
+      </c>
+      <c r="R20">
+        <v>0.005</v>
+      </c>
+      <c r="S20">
+        <v>0.005</v>
+      </c>
+      <c r="T20">
+        <v>0.5</v>
+      </c>
+      <c r="U20">
+        <v>20</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>10</v>
+      </c>
+      <c r="X20">
+        <v>999</v>
+      </c>
+      <c r="Y20">
+        <v>-999</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <v>30</v>
+      </c>
+      <c r="AB20">
+        <v>999</v>
+      </c>
+      <c r="AC20">
+        <v>-999</v>
+      </c>
+      <c r="AD20">
+        <v>0.1</v>
+      </c>
+      <c r="AE20">
+        <v>1.5</v>
+      </c>
+      <c r="AF20">
+        <v>0.025</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>0.15</v>
+      </c>
+      <c r="AJ20">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>919</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>919</v>
+      </c>
+      <c r="E21">
+        <v>153</v>
+      </c>
+      <c r="F21">
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <v>92.67</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.2</v>
+      </c>
+      <c r="J21">
+        <v>0.8</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>60</v>
+      </c>
+      <c r="N21">
+        <v>75</v>
+      </c>
+      <c r="O21">
+        <v>-75</v>
+      </c>
+      <c r="P21">
+        <v>0.033</v>
+      </c>
+      <c r="Q21">
+        <v>0.045</v>
+      </c>
+      <c r="R21">
+        <v>0.005</v>
+      </c>
+      <c r="S21">
+        <v>0.005</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>10</v>
+      </c>
+      <c r="X21">
+        <v>999</v>
+      </c>
+      <c r="Y21">
+        <v>-999</v>
+      </c>
+      <c r="Z21">
+        <v>5</v>
+      </c>
+      <c r="AA21">
+        <v>30</v>
+      </c>
+      <c r="AB21">
+        <v>999</v>
+      </c>
+      <c r="AC21">
+        <v>-999</v>
+      </c>
+      <c r="AD21">
+        <v>0.1</v>
+      </c>
+      <c r="AE21">
+        <v>1.5</v>
+      </c>
+      <c r="AF21">
+        <v>0.025</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>0.15</v>
+      </c>
+      <c r="AJ21">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>920</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>920</v>
+      </c>
+      <c r="E22">
+        <v>154</v>
+      </c>
+      <c r="F22">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>92.67</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.2</v>
+      </c>
+      <c r="J22">
+        <v>0.8</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>60</v>
+      </c>
+      <c r="N22">
+        <v>75</v>
+      </c>
+      <c r="O22">
+        <v>-75</v>
+      </c>
+      <c r="P22">
+        <v>0.033</v>
+      </c>
+      <c r="Q22">
+        <v>0.045</v>
+      </c>
+      <c r="R22">
+        <v>0.005</v>
+      </c>
+      <c r="S22">
+        <v>0.005</v>
+      </c>
+      <c r="T22">
+        <v>0.5</v>
+      </c>
+      <c r="U22">
+        <v>20</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>999</v>
+      </c>
+      <c r="Y22">
+        <v>-999</v>
+      </c>
+      <c r="Z22">
+        <v>5</v>
+      </c>
+      <c r="AA22">
+        <v>30</v>
+      </c>
+      <c r="AB22">
+        <v>999</v>
+      </c>
+      <c r="AC22">
+        <v>-999</v>
+      </c>
+      <c r="AD22">
+        <v>0.1</v>
+      </c>
+      <c r="AE22">
+        <v>1.5</v>
+      </c>
+      <c r="AF22">
+        <v>0.025</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>0.15</v>
+      </c>
+      <c r="AJ22">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>921</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>921</v>
+      </c>
+      <c r="E23">
+        <v>155</v>
+      </c>
+      <c r="F23">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>92.67</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.2</v>
+      </c>
+      <c r="J23">
+        <v>0.8</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>60</v>
+      </c>
+      <c r="N23">
+        <v>75</v>
+      </c>
+      <c r="O23">
+        <v>-75</v>
+      </c>
+      <c r="P23">
+        <v>0.033</v>
+      </c>
+      <c r="Q23">
+        <v>0.045</v>
+      </c>
+      <c r="R23">
+        <v>0.005</v>
+      </c>
+      <c r="S23">
+        <v>0.005</v>
+      </c>
+      <c r="T23">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
+        <v>20</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>999</v>
+      </c>
+      <c r="Y23">
+        <v>-999</v>
+      </c>
+      <c r="Z23">
+        <v>5</v>
+      </c>
+      <c r="AA23">
+        <v>30</v>
+      </c>
+      <c r="AB23">
+        <v>999</v>
+      </c>
+      <c r="AC23">
+        <v>-999</v>
+      </c>
+      <c r="AD23">
+        <v>0.1</v>
+      </c>
+      <c r="AE23">
+        <v>1.5</v>
+      </c>
+      <c r="AF23">
+        <v>0.025</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>0.15</v>
+      </c>
+      <c r="AJ23">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="2" spans="1:43">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>922</v>
+      </c>
+      <c r="E24">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>4.8</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.2</v>
+      </c>
+      <c r="J24">
+        <v>0.8</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>60</v>
+      </c>
+      <c r="N24">
+        <v>75</v>
+      </c>
+      <c r="O24">
+        <v>-75</v>
+      </c>
+      <c r="P24">
+        <v>0.033</v>
+      </c>
+      <c r="Q24">
+        <v>0.045</v>
+      </c>
+      <c r="R24">
+        <v>0.005</v>
+      </c>
+      <c r="S24">
+        <v>0.005</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <v>20</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>10</v>
+      </c>
+      <c r="X24">
+        <v>999</v>
+      </c>
+      <c r="Y24">
+        <v>-999</v>
+      </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>30</v>
+      </c>
+      <c r="AB24">
+        <v>999</v>
+      </c>
+      <c r="AC24">
+        <v>-999</v>
+      </c>
+      <c r="AD24">
+        <v>0.1</v>
+      </c>
+      <c r="AE24">
+        <v>1.5</v>
+      </c>
+      <c r="AF24">
+        <v>0.025</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>0.15</v>
+      </c>
+      <c r="AJ24">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>923</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>923</v>
       </c>
-      <c r="E2">
-        <v>76</v>
-      </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>4.8</v>
-      </c>
-      <c r="H2">
+      <c r="E25">
+        <v>183</v>
+      </c>
+      <c r="F25">
+        <v>46</v>
+      </c>
+      <c r="G25">
+        <v>31.92</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.2</v>
+      </c>
+      <c r="J25">
+        <v>0.8</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <v>60</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2">
+      <c r="N25">
+        <v>75</v>
+      </c>
+      <c r="O25">
+        <v>-75</v>
+      </c>
+      <c r="P25">
+        <v>0.033</v>
+      </c>
+      <c r="Q25">
+        <v>0.045</v>
+      </c>
+      <c r="R25">
+        <v>0.005</v>
+      </c>
+      <c r="S25">
+        <v>0.005</v>
+      </c>
+      <c r="T25">
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <v>20</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+      <c r="X25">
         <v>999</v>
       </c>
-      <c r="N2">
+      <c r="Y25">
         <v>-999</v>
       </c>
-      <c r="O2">
+      <c r="Z25">
+        <v>5</v>
+      </c>
+      <c r="AA25">
+        <v>30</v>
+      </c>
+      <c r="AB25">
         <v>999</v>
       </c>
-      <c r="P2">
-        <v>0.8</v>
-      </c>
-      <c r="Q2">
-        <v>1.1</v>
-      </c>
-      <c r="R2">
-        <v>-1</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>999</v>
-      </c>
-      <c r="V2">
-        <v>0.88</v>
-      </c>
-      <c r="W2">
-        <v>0.9</v>
-      </c>
-      <c r="X2">
-        <v>1.1</v>
-      </c>
-      <c r="Y2">
-        <v>1.2</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>59.5</v>
-      </c>
-      <c r="AB2">
-        <v>59.7</v>
-      </c>
-      <c r="AC2">
-        <v>60.3</v>
-      </c>
-      <c r="AD2">
-        <v>60.5</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0.02</v>
-      </c>
-      <c r="AG2">
-        <v>0.02</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
-      <c r="AN2">
-        <v>0.5</v>
-      </c>
-      <c r="AO2">
-        <v>4.8</v>
-      </c>
-      <c r="AP2">
-        <v>1</v>
-      </c>
-      <c r="AQ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>924</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>924</v>
-      </c>
-      <c r="E3">
-        <v>183</v>
-      </c>
-      <c r="F3">
-        <v>46</v>
-      </c>
-      <c r="G3">
-        <v>31.92</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>999</v>
-      </c>
-      <c r="N3">
+      <c r="AC25">
         <v>-999</v>
       </c>
-      <c r="O3">
-        <v>999</v>
-      </c>
-      <c r="P3">
-        <v>0.8</v>
-      </c>
-      <c r="Q3">
-        <v>1.1</v>
-      </c>
-      <c r="R3">
-        <v>-1</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>999</v>
-      </c>
-      <c r="V3">
-        <v>0.88</v>
-      </c>
-      <c r="W3">
-        <v>0.9</v>
-      </c>
-      <c r="X3">
-        <v>1.1</v>
-      </c>
-      <c r="Y3">
-        <v>1.2</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>59.5</v>
-      </c>
-      <c r="AB3">
-        <v>59.7</v>
-      </c>
-      <c r="AC3">
-        <v>60.3</v>
-      </c>
-      <c r="AD3">
-        <v>60.5</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0.02</v>
-      </c>
-      <c r="AG3">
-        <v>0.02</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-      <c r="AN3">
-        <v>0.5</v>
-      </c>
-      <c r="AO3">
-        <v>31.92</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
-        <v>1</v>
+      <c r="AD25">
+        <v>0.1</v>
+      </c>
+      <c r="AE25">
+        <v>1.5</v>
+      </c>
+      <c r="AF25">
+        <v>0.025</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>0.15</v>
+      </c>
+      <c r="AJ25">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>

--- a/demo/deadband/cases/IL200_dyn_db.xlsx
+++ b/demo/deadband/cases/IL200_dyn_db.xlsx
@@ -17213,10 +17213,10 @@
         <v>0.005</v>
       </c>
       <c r="T2">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>3</v>
@@ -17323,10 +17323,10 @@
         <v>0.005</v>
       </c>
       <c r="T3">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>3</v>
@@ -17433,10 +17433,10 @@
         <v>0.005</v>
       </c>
       <c r="T4">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>3</v>
@@ -17543,10 +17543,10 @@
         <v>0.005</v>
       </c>
       <c r="T5">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>3</v>
@@ -17653,10 +17653,10 @@
         <v>0.005</v>
       </c>
       <c r="T6">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>3</v>
@@ -17763,10 +17763,10 @@
         <v>0.005</v>
       </c>
       <c r="T7">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>3</v>
@@ -17873,10 +17873,10 @@
         <v>0.005</v>
       </c>
       <c r="T8">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>3</v>
@@ -17983,10 +17983,10 @@
         <v>0.005</v>
       </c>
       <c r="T9">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>3</v>
@@ -18093,10 +18093,10 @@
         <v>0.005</v>
       </c>
       <c r="T10">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>3</v>
@@ -18203,10 +18203,10 @@
         <v>0.005</v>
       </c>
       <c r="T11">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>3</v>
@@ -18313,10 +18313,10 @@
         <v>0.005</v>
       </c>
       <c r="T12">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>3</v>
@@ -18423,10 +18423,10 @@
         <v>0.005</v>
       </c>
       <c r="T13">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>3</v>
@@ -18533,10 +18533,10 @@
         <v>0.005</v>
       </c>
       <c r="T14">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>3</v>
@@ -18643,10 +18643,10 @@
         <v>0.005</v>
       </c>
       <c r="T15">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>3</v>
@@ -18753,10 +18753,10 @@
         <v>0.005</v>
       </c>
       <c r="T16">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>3</v>
@@ -18863,10 +18863,10 @@
         <v>0.005</v>
       </c>
       <c r="T17">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>3</v>
@@ -18973,10 +18973,10 @@
         <v>0.005</v>
       </c>
       <c r="T18">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>3</v>
@@ -19083,10 +19083,10 @@
         <v>0.005</v>
       </c>
       <c r="T19">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>3</v>
@@ -19193,10 +19193,10 @@
         <v>0.005</v>
       </c>
       <c r="T20">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>3</v>
@@ -19303,10 +19303,10 @@
         <v>0.005</v>
       </c>
       <c r="T21">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>3</v>
@@ -19413,10 +19413,10 @@
         <v>0.005</v>
       </c>
       <c r="T22">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>3</v>
@@ -19523,10 +19523,10 @@
         <v>0.005</v>
       </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>3</v>
@@ -19633,10 +19633,10 @@
         <v>0.005</v>
       </c>
       <c r="T24">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>3</v>
@@ -19743,10 +19743,10 @@
         <v>0.005</v>
       </c>
       <c r="T25">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>3</v>

--- a/demo/deadband/cases/IL200_dyn_db.xlsx
+++ b/demo/deadband/cases/IL200_dyn_db.xlsx
@@ -19,15 +19,15 @@
     <sheet name="TGOV1NDB" sheetId="10" r:id="rId10"/>
     <sheet name="SEXS" sheetId="11" r:id="rId11"/>
     <sheet name="BusFreq" sheetId="12" r:id="rId12"/>
-    <sheet name="PLL2" sheetId="13" r:id="rId13"/>
-    <sheet name="REGF2" sheetId="14" r:id="rId14"/>
+    <sheet name="PVD2" sheetId="13" r:id="rId13"/>
+    <sheet name="ESD2" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="925">
   <si>
     <t>idx</t>
   </si>
@@ -2570,163 +2570,148 @@
     <t>BusFreq_1</t>
   </si>
   <si>
-    <t>Kp</t>
-  </si>
-  <si>
-    <t>Ki</t>
-  </si>
-  <si>
-    <t>PLL2_1</t>
-  </si>
-  <si>
-    <t>PLL2_2</t>
-  </si>
-  <si>
-    <t>PLL2_3</t>
-  </si>
-  <si>
-    <t>PLL2_4</t>
-  </si>
-  <si>
-    <t>PLL2_5</t>
-  </si>
-  <si>
-    <t>PLL2_6</t>
-  </si>
-  <si>
-    <t>PLL2_7</t>
-  </si>
-  <si>
-    <t>PLL2_8</t>
-  </si>
-  <si>
-    <t>PLL2_9</t>
-  </si>
-  <si>
-    <t>PLL2_10</t>
-  </si>
-  <si>
-    <t>PLL2_11</t>
-  </si>
-  <si>
-    <t>PLL2_12</t>
-  </si>
-  <si>
-    <t>PLL2_13</t>
-  </si>
-  <si>
-    <t>PLL2_14</t>
-  </si>
-  <si>
-    <t>PLL2_15</t>
-  </si>
-  <si>
-    <t>PLL2_16</t>
-  </si>
-  <si>
-    <t>PLL2_17</t>
-  </si>
-  <si>
-    <t>PLL2_18</t>
-  </si>
-  <si>
-    <t>PLL2_19</t>
-  </si>
-  <si>
-    <t>PLL2_20</t>
-  </si>
-  <si>
-    <t>PLL2_21</t>
-  </si>
-  <si>
-    <t>PLL2_22</t>
-  </si>
-  <si>
-    <t>PLL2_23</t>
-  </si>
-  <si>
-    <t>PLL2_24</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
-    <t>xf</t>
-  </si>
-  <si>
-    <t>Vdip</t>
-  </si>
-  <si>
-    <t>Tfrz</t>
-  </si>
-  <si>
-    <t>PQFLAG</t>
-  </si>
-  <si>
-    <t>dwmax</t>
-  </si>
-  <si>
-    <t>dwmin</t>
-  </si>
-  <si>
-    <t>wdrp</t>
-  </si>
-  <si>
-    <t>Qdrp</t>
-  </si>
-  <si>
-    <t>Tr</t>
-  </si>
-  <si>
-    <t>Te</t>
-  </si>
-  <si>
-    <t>KPi</t>
-  </si>
-  <si>
-    <t>KIi</t>
-  </si>
-  <si>
-    <t>KPv</t>
-  </si>
-  <si>
-    <t>KIv</t>
-  </si>
-  <si>
-    <t>Pmax</t>
-  </si>
-  <si>
-    <t>Pmin</t>
-  </si>
-  <si>
-    <t>KPplim</t>
-  </si>
-  <si>
-    <t>KIplim</t>
-  </si>
-  <si>
-    <t>Qmax</t>
-  </si>
-  <si>
-    <t>Qmin</t>
-  </si>
-  <si>
-    <t>KPqlim</t>
-  </si>
-  <si>
-    <t>KIqlim</t>
-  </si>
-  <si>
-    <t>Tpm</t>
-  </si>
-  <si>
-    <t>mf</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>pll</t>
+    <t>BusFreq_2</t>
+  </si>
+  <si>
+    <t>BusFreq_3</t>
+  </si>
+  <si>
+    <t>BusFreq_4</t>
+  </si>
+  <si>
+    <t>BusFreq_5</t>
+  </si>
+  <si>
+    <t>BusFreq_6</t>
+  </si>
+  <si>
+    <t>BusFreq_7</t>
+  </si>
+  <si>
+    <t>BusFreq_8</t>
+  </si>
+  <si>
+    <t>BusFreq_9</t>
+  </si>
+  <si>
+    <t>BusFreq_10</t>
+  </si>
+  <si>
+    <t>BusFreq_11</t>
+  </si>
+  <si>
+    <t>BusFreq_12</t>
+  </si>
+  <si>
+    <t>BusFreq_13</t>
+  </si>
+  <si>
+    <t>BusFreq_14</t>
+  </si>
+  <si>
+    <t>BusFreq_15</t>
+  </si>
+  <si>
+    <t>BusFreq_16</t>
+  </si>
+  <si>
+    <t>BusFreq_17</t>
+  </si>
+  <si>
+    <t>BusFreq_18</t>
+  </si>
+  <si>
+    <t>BusFreq_19</t>
+  </si>
+  <si>
+    <t>BusFreq_20</t>
+  </si>
+  <si>
+    <t>BusFreq_21</t>
+  </si>
+  <si>
+    <t>BusFreq_22</t>
+  </si>
+  <si>
+    <t>BusFreq_23</t>
+  </si>
+  <si>
+    <t>BusFreq_24</t>
+  </si>
+  <si>
+    <t>BusFreq_25</t>
+  </si>
+  <si>
+    <t>xc</t>
+  </si>
+  <si>
+    <t>pqflag</t>
+  </si>
+  <si>
+    <t>igreg</t>
+  </si>
+  <si>
+    <t>qmx</t>
+  </si>
+  <si>
+    <t>qmn</t>
+  </si>
+  <si>
+    <t>pmx</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>dqdv</t>
+  </si>
+  <si>
+    <t>fdbd</t>
+  </si>
+  <si>
+    <t>ddn</t>
+  </si>
+  <si>
+    <t>ialim</t>
+  </si>
+  <si>
+    <t>vt0</t>
+  </si>
+  <si>
+    <t>vt1</t>
+  </si>
+  <si>
+    <t>vt2</t>
+  </si>
+  <si>
+    <t>vt3</t>
+  </si>
+  <si>
+    <t>vrflag</t>
+  </si>
+  <si>
+    <t>ft0</t>
+  </si>
+  <si>
+    <t>ft1</t>
+  </si>
+  <si>
+    <t>ft2</t>
+  </si>
+  <si>
+    <t>ft3</t>
+  </si>
+  <si>
+    <t>frflag</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>tiq</t>
+  </si>
+  <si>
+    <t>recflag</t>
   </si>
   <si>
     <t>WT_1</t>
@@ -2793,6 +2778,24 @@
   </si>
   <si>
     <t>PV_10</t>
+  </si>
+  <si>
+    <t>SOCmin</t>
+  </si>
+  <si>
+    <t>SOCmax</t>
+  </si>
+  <si>
+    <t>SOCinit</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>EtaC</t>
+  </si>
+  <si>
+    <t>EtaD</t>
   </si>
   <si>
     <t>ESS_1</t>
@@ -16298,7 +16301,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16359,6 +16362,630 @@
         <v>60</v>
       </c>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>847</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>0.02</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>848</v>
+      </c>
+      <c r="E4">
+        <v>68</v>
+      </c>
+      <c r="F4">
+        <v>0.02</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>849</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E5">
+        <v>69</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>850</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>850</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>0.02</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E7">
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <v>0.02</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>852</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>852</v>
+      </c>
+      <c r="E8">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>0.02</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>853</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>853</v>
+      </c>
+      <c r="E9">
+        <v>73</v>
+      </c>
+      <c r="F9">
+        <v>0.02</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>854</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>854</v>
+      </c>
+      <c r="E10">
+        <v>104</v>
+      </c>
+      <c r="F10">
+        <v>0.02</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>855</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>855</v>
+      </c>
+      <c r="E11">
+        <v>105</v>
+      </c>
+      <c r="F11">
+        <v>0.02</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>856</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E12">
+        <v>114</v>
+      </c>
+      <c r="F12">
+        <v>0.02</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>857</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>857</v>
+      </c>
+      <c r="E13">
+        <v>115</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>858</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>858</v>
+      </c>
+      <c r="E14">
+        <v>147</v>
+      </c>
+      <c r="F14">
+        <v>0.02</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>859</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>859</v>
+      </c>
+      <c r="E15">
+        <v>125</v>
+      </c>
+      <c r="F15">
+        <v>0.02</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>860</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>860</v>
+      </c>
+      <c r="E16">
+        <v>126</v>
+      </c>
+      <c r="F16">
+        <v>0.02</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>861</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>861</v>
+      </c>
+      <c r="E17">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>0.02</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>862</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>862</v>
+      </c>
+      <c r="E18">
+        <v>135</v>
+      </c>
+      <c r="F18">
+        <v>0.02</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>863</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>863</v>
+      </c>
+      <c r="E19">
+        <v>136</v>
+      </c>
+      <c r="F19">
+        <v>0.02</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>864</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>864</v>
+      </c>
+      <c r="E20">
+        <v>151</v>
+      </c>
+      <c r="F20">
+        <v>0.02</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>865</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>865</v>
+      </c>
+      <c r="E21">
+        <v>152</v>
+      </c>
+      <c r="F21">
+        <v>0.02</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>866</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>866</v>
+      </c>
+      <c r="E22">
+        <v>153</v>
+      </c>
+      <c r="F22">
+        <v>0.02</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>867</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>867</v>
+      </c>
+      <c r="E23">
+        <v>154</v>
+      </c>
+      <c r="F23">
+        <v>0.02</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>868</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>868</v>
+      </c>
+      <c r="E24">
+        <v>155</v>
+      </c>
+      <c r="F24">
+        <v>0.02</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>869</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>869</v>
+      </c>
+      <c r="E25">
+        <v>76</v>
+      </c>
+      <c r="F25">
+        <v>0.02</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>870</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>870</v>
+      </c>
+      <c r="E26">
+        <v>183</v>
+      </c>
+      <c r="F26">
+        <v>0.02</v>
+      </c>
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16366,7 +16993,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16375,7 +17002,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -16392,637 +17019,2385 @@
         <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>849</v>
+        <v>895</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>849</v>
+        <v>895</v>
       </c>
       <c r="E2">
         <v>65</v>
       </c>
       <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>180.48</v>
+      </c>
+      <c r="H2">
         <v>60</v>
       </c>
-      <c r="G2">
-        <v>0.1</v>
-      </c>
-      <c r="H2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>999</v>
+      </c>
+      <c r="N2">
+        <v>-999</v>
+      </c>
+      <c r="O2">
+        <v>999</v>
+      </c>
+      <c r="P2">
+        <v>0.8</v>
+      </c>
+      <c r="Q2">
+        <v>1.1</v>
+      </c>
+      <c r="R2">
+        <v>-1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>999</v>
+      </c>
+      <c r="V2">
+        <v>0.88</v>
+      </c>
+      <c r="W2">
+        <v>0.9</v>
+      </c>
+      <c r="X2">
+        <v>1.1</v>
+      </c>
+      <c r="Y2">
+        <v>1.2</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>59.5</v>
+      </c>
+      <c r="AB2">
+        <v>59.7</v>
+      </c>
+      <c r="AC2">
+        <v>60.3</v>
+      </c>
+      <c r="AD2">
+        <v>60.5</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0.02</v>
+      </c>
+      <c r="AG2">
+        <v>0.02</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>850</v>
+        <v>896</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>850</v>
+        <v>896</v>
       </c>
       <c r="E3">
         <v>68</v>
       </c>
       <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>33.5</v>
+      </c>
+      <c r="H3">
         <v>60</v>
       </c>
-      <c r="G3">
-        <v>0.1</v>
-      </c>
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>999</v>
+      </c>
+      <c r="N3">
+        <v>-999</v>
+      </c>
+      <c r="O3">
+        <v>999</v>
+      </c>
+      <c r="P3">
+        <v>0.8</v>
+      </c>
+      <c r="Q3">
+        <v>1.1</v>
+      </c>
+      <c r="R3">
+        <v>-1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>999</v>
+      </c>
+      <c r="V3">
+        <v>0.88</v>
+      </c>
+      <c r="W3">
+        <v>0.9</v>
+      </c>
+      <c r="X3">
+        <v>1.1</v>
+      </c>
+      <c r="Y3">
+        <v>1.2</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>59.5</v>
+      </c>
+      <c r="AB3">
+        <v>59.7</v>
+      </c>
+      <c r="AC3">
+        <v>60.3</v>
+      </c>
+      <c r="AD3">
+        <v>60.5</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0.02</v>
+      </c>
+      <c r="AG3">
+        <v>0.02</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>851</v>
+        <v>897</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>851</v>
+        <v>897</v>
       </c>
       <c r="E4">
         <v>69</v>
       </c>
       <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>33.5</v>
+      </c>
+      <c r="H4">
         <v>60</v>
       </c>
-      <c r="G4">
-        <v>0.1</v>
-      </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>999</v>
+      </c>
+      <c r="N4">
+        <v>-999</v>
+      </c>
+      <c r="O4">
+        <v>999</v>
+      </c>
+      <c r="P4">
+        <v>0.8</v>
+      </c>
+      <c r="Q4">
+        <v>1.1</v>
+      </c>
+      <c r="R4">
+        <v>-1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>999</v>
+      </c>
+      <c r="V4">
+        <v>0.88</v>
+      </c>
+      <c r="W4">
+        <v>0.9</v>
+      </c>
+      <c r="X4">
+        <v>1.1</v>
+      </c>
+      <c r="Y4">
+        <v>1.2</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>59.5</v>
+      </c>
+      <c r="AB4">
+        <v>59.7</v>
+      </c>
+      <c r="AC4">
+        <v>60.3</v>
+      </c>
+      <c r="AD4">
+        <v>60.5</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.02</v>
+      </c>
+      <c r="AG4">
+        <v>0.02</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>852</v>
+        <v>898</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>852</v>
+        <v>898</v>
       </c>
       <c r="E5">
         <v>70</v>
       </c>
       <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>33.5</v>
+      </c>
+      <c r="H5">
         <v>60</v>
       </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>999</v>
+      </c>
+      <c r="N5">
+        <v>-999</v>
+      </c>
+      <c r="O5">
+        <v>999</v>
+      </c>
+      <c r="P5">
+        <v>0.8</v>
+      </c>
+      <c r="Q5">
+        <v>1.1</v>
+      </c>
+      <c r="R5">
+        <v>-1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>999</v>
+      </c>
+      <c r="V5">
+        <v>0.88</v>
+      </c>
+      <c r="W5">
+        <v>0.9</v>
+      </c>
+      <c r="X5">
+        <v>1.1</v>
+      </c>
+      <c r="Y5">
+        <v>1.2</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>59.5</v>
+      </c>
+      <c r="AB5">
+        <v>59.7</v>
+      </c>
+      <c r="AC5">
+        <v>60.3</v>
+      </c>
+      <c r="AD5">
+        <v>60.5</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0.02</v>
+      </c>
+      <c r="AG5">
+        <v>0.02</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>853</v>
+        <v>899</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>853</v>
+        <v>899</v>
       </c>
       <c r="E6">
         <v>71</v>
       </c>
       <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>33.5</v>
+      </c>
+      <c r="H6">
         <v>60</v>
       </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-      <c r="H6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>999</v>
+      </c>
+      <c r="N6">
+        <v>-999</v>
+      </c>
+      <c r="O6">
+        <v>999</v>
+      </c>
+      <c r="P6">
+        <v>0.8</v>
+      </c>
+      <c r="Q6">
+        <v>1.1</v>
+      </c>
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>999</v>
+      </c>
+      <c r="V6">
+        <v>0.88</v>
+      </c>
+      <c r="W6">
+        <v>0.9</v>
+      </c>
+      <c r="X6">
+        <v>1.1</v>
+      </c>
+      <c r="Y6">
+        <v>1.2</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>59.5</v>
+      </c>
+      <c r="AB6">
+        <v>59.7</v>
+      </c>
+      <c r="AC6">
+        <v>60.3</v>
+      </c>
+      <c r="AD6">
+        <v>60.5</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0.02</v>
+      </c>
+      <c r="AG6">
+        <v>0.02</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>854</v>
+        <v>900</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>854</v>
+        <v>900</v>
       </c>
       <c r="E7">
         <v>72</v>
       </c>
       <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>33.5</v>
+      </c>
+      <c r="H7">
         <v>60</v>
       </c>
-      <c r="G7">
-        <v>0.1</v>
-      </c>
-      <c r="H7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>999</v>
+      </c>
+      <c r="N7">
+        <v>-999</v>
+      </c>
+      <c r="O7">
+        <v>999</v>
+      </c>
+      <c r="P7">
+        <v>0.8</v>
+      </c>
+      <c r="Q7">
+        <v>1.1</v>
+      </c>
+      <c r="R7">
+        <v>-1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>999</v>
+      </c>
+      <c r="V7">
+        <v>0.88</v>
+      </c>
+      <c r="W7">
+        <v>0.9</v>
+      </c>
+      <c r="X7">
+        <v>1.1</v>
+      </c>
+      <c r="Y7">
+        <v>1.2</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>59.5</v>
+      </c>
+      <c r="AB7">
+        <v>59.7</v>
+      </c>
+      <c r="AC7">
+        <v>60.3</v>
+      </c>
+      <c r="AD7">
+        <v>60.5</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0.02</v>
+      </c>
+      <c r="AG7">
+        <v>0.02</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>855</v>
+        <v>901</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>855</v>
+        <v>901</v>
       </c>
       <c r="E8">
         <v>73</v>
       </c>
       <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>33.5</v>
+      </c>
+      <c r="H8">
         <v>60</v>
       </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-      <c r="H8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>999</v>
+      </c>
+      <c r="N8">
+        <v>-999</v>
+      </c>
+      <c r="O8">
+        <v>999</v>
+      </c>
+      <c r="P8">
+        <v>0.8</v>
+      </c>
+      <c r="Q8">
+        <v>1.1</v>
+      </c>
+      <c r="R8">
+        <v>-1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>999</v>
+      </c>
+      <c r="V8">
+        <v>0.88</v>
+      </c>
+      <c r="W8">
+        <v>0.9</v>
+      </c>
+      <c r="X8">
+        <v>1.1</v>
+      </c>
+      <c r="Y8">
+        <v>1.2</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>59.5</v>
+      </c>
+      <c r="AB8">
+        <v>59.7</v>
+      </c>
+      <c r="AC8">
+        <v>60.3</v>
+      </c>
+      <c r="AD8">
+        <v>60.5</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0.02</v>
+      </c>
+      <c r="AG8">
+        <v>0.02</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>856</v>
+        <v>902</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>856</v>
+        <v>902</v>
       </c>
       <c r="E9">
         <v>104</v>
       </c>
       <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>118.8</v>
+      </c>
+      <c r="H9">
         <v>60</v>
       </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>999</v>
+      </c>
+      <c r="N9">
+        <v>-999</v>
+      </c>
+      <c r="O9">
+        <v>999</v>
+      </c>
+      <c r="P9">
+        <v>0.8</v>
+      </c>
+      <c r="Q9">
+        <v>1.1</v>
+      </c>
+      <c r="R9">
+        <v>-1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>999</v>
+      </c>
+      <c r="V9">
+        <v>0.88</v>
+      </c>
+      <c r="W9">
+        <v>0.9</v>
+      </c>
+      <c r="X9">
+        <v>1.1</v>
+      </c>
+      <c r="Y9">
+        <v>1.2</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>59.5</v>
+      </c>
+      <c r="AB9">
+        <v>59.7</v>
+      </c>
+      <c r="AC9">
+        <v>60.3</v>
+      </c>
+      <c r="AD9">
+        <v>60.5</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0.02</v>
+      </c>
+      <c r="AG9">
+        <v>0.02</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>857</v>
+        <v>903</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>857</v>
+        <v>903</v>
       </c>
       <c r="E10">
         <v>105</v>
       </c>
       <c r="F10">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>237.6</v>
+      </c>
+      <c r="H10">
         <v>60</v>
       </c>
-      <c r="G10">
-        <v>0.1</v>
-      </c>
-      <c r="H10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>999</v>
+      </c>
+      <c r="N10">
+        <v>-999</v>
+      </c>
+      <c r="O10">
+        <v>999</v>
+      </c>
+      <c r="P10">
+        <v>0.8</v>
+      </c>
+      <c r="Q10">
+        <v>1.1</v>
+      </c>
+      <c r="R10">
+        <v>-1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>999</v>
+      </c>
+      <c r="V10">
+        <v>0.88</v>
+      </c>
+      <c r="W10">
+        <v>0.9</v>
+      </c>
+      <c r="X10">
+        <v>1.1</v>
+      </c>
+      <c r="Y10">
+        <v>1.2</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>59.5</v>
+      </c>
+      <c r="AB10">
+        <v>59.7</v>
+      </c>
+      <c r="AC10">
+        <v>60.3</v>
+      </c>
+      <c r="AD10">
+        <v>60.5</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0.02</v>
+      </c>
+      <c r="AG10">
+        <v>0.02</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>858</v>
+        <v>904</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>858</v>
+        <v>904</v>
       </c>
       <c r="E11">
         <v>114</v>
       </c>
       <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>2.04</v>
+      </c>
+      <c r="H11">
         <v>60</v>
       </c>
-      <c r="G11">
-        <v>0.1</v>
-      </c>
-      <c r="H11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>999</v>
+      </c>
+      <c r="N11">
+        <v>-999</v>
+      </c>
+      <c r="O11">
+        <v>999</v>
+      </c>
+      <c r="P11">
+        <v>0.8</v>
+      </c>
+      <c r="Q11">
+        <v>1.1</v>
+      </c>
+      <c r="R11">
+        <v>-1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>999</v>
+      </c>
+      <c r="V11">
+        <v>0.88</v>
+      </c>
+      <c r="W11">
+        <v>0.9</v>
+      </c>
+      <c r="X11">
+        <v>1.1</v>
+      </c>
+      <c r="Y11">
+        <v>1.2</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>59.5</v>
+      </c>
+      <c r="AB11">
+        <v>59.7</v>
+      </c>
+      <c r="AC11">
+        <v>60.3</v>
+      </c>
+      <c r="AD11">
+        <v>60.5</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0.02</v>
+      </c>
+      <c r="AG11">
+        <v>0.02</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>859</v>
+        <v>905</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>859</v>
+        <v>905</v>
       </c>
       <c r="E12">
         <v>115</v>
       </c>
       <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>180</v>
+      </c>
+      <c r="H12">
         <v>60</v>
       </c>
-      <c r="G12">
-        <v>0.1</v>
-      </c>
-      <c r="H12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>999</v>
+      </c>
+      <c r="N12">
+        <v>-999</v>
+      </c>
+      <c r="O12">
+        <v>999</v>
+      </c>
+      <c r="P12">
+        <v>0.8</v>
+      </c>
+      <c r="Q12">
+        <v>1.1</v>
+      </c>
+      <c r="R12">
+        <v>-1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>999</v>
+      </c>
+      <c r="V12">
+        <v>0.88</v>
+      </c>
+      <c r="W12">
+        <v>0.9</v>
+      </c>
+      <c r="X12">
+        <v>1.1</v>
+      </c>
+      <c r="Y12">
+        <v>1.2</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>59.5</v>
+      </c>
+      <c r="AB12">
+        <v>59.7</v>
+      </c>
+      <c r="AC12">
+        <v>60.3</v>
+      </c>
+      <c r="AD12">
+        <v>60.5</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0.02</v>
+      </c>
+      <c r="AG12">
+        <v>0.02</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>860</v>
+        <v>906</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>860</v>
+        <v>906</v>
       </c>
       <c r="E13">
         <v>147</v>
       </c>
       <c r="F13">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>120.6</v>
+      </c>
+      <c r="H13">
         <v>60</v>
       </c>
-      <c r="G13">
-        <v>0.1</v>
-      </c>
-      <c r="H13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>999</v>
+      </c>
+      <c r="N13">
+        <v>-999</v>
+      </c>
+      <c r="O13">
+        <v>999</v>
+      </c>
+      <c r="P13">
+        <v>0.8</v>
+      </c>
+      <c r="Q13">
+        <v>1.1</v>
+      </c>
+      <c r="R13">
+        <v>-1</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>999</v>
+      </c>
+      <c r="V13">
+        <v>0.88</v>
+      </c>
+      <c r="W13">
+        <v>0.9</v>
+      </c>
+      <c r="X13">
+        <v>1.1</v>
+      </c>
+      <c r="Y13">
+        <v>1.2</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>59.5</v>
+      </c>
+      <c r="AB13">
+        <v>59.7</v>
+      </c>
+      <c r="AC13">
+        <v>60.3</v>
+      </c>
+      <c r="AD13">
+        <v>60.5</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0.02</v>
+      </c>
+      <c r="AG13">
+        <v>0.02</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>861</v>
+        <v>907</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>861</v>
+        <v>907</v>
       </c>
       <c r="E14">
         <v>125</v>
       </c>
       <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>156.06</v>
+      </c>
+      <c r="H14">
         <v>60</v>
       </c>
-      <c r="G14">
-        <v>0.1</v>
-      </c>
-      <c r="H14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>999</v>
+      </c>
+      <c r="N14">
+        <v>-999</v>
+      </c>
+      <c r="O14">
+        <v>999</v>
+      </c>
+      <c r="P14">
+        <v>0.8</v>
+      </c>
+      <c r="Q14">
+        <v>1.1</v>
+      </c>
+      <c r="R14">
+        <v>-1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>999</v>
+      </c>
+      <c r="V14">
+        <v>0.88</v>
+      </c>
+      <c r="W14">
+        <v>0.9</v>
+      </c>
+      <c r="X14">
+        <v>1.1</v>
+      </c>
+      <c r="Y14">
+        <v>1.2</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>59.5</v>
+      </c>
+      <c r="AB14">
+        <v>59.7</v>
+      </c>
+      <c r="AC14">
+        <v>60.3</v>
+      </c>
+      <c r="AD14">
+        <v>60.5</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0.02</v>
+      </c>
+      <c r="AG14">
+        <v>0.02</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>862</v>
+        <v>908</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>862</v>
+        <v>908</v>
       </c>
       <c r="E15">
         <v>126</v>
       </c>
       <c r="F15">
+        <v>27</v>
+      </c>
+      <c r="G15">
+        <v>156.06</v>
+      </c>
+      <c r="H15">
         <v>60</v>
       </c>
-      <c r="G15">
-        <v>0.1</v>
-      </c>
-      <c r="H15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>999</v>
+      </c>
+      <c r="N15">
+        <v>-999</v>
+      </c>
+      <c r="O15">
+        <v>999</v>
+      </c>
+      <c r="P15">
+        <v>0.8</v>
+      </c>
+      <c r="Q15">
+        <v>1.1</v>
+      </c>
+      <c r="R15">
+        <v>-1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>999</v>
+      </c>
+      <c r="V15">
+        <v>0.88</v>
+      </c>
+      <c r="W15">
+        <v>0.9</v>
+      </c>
+      <c r="X15">
+        <v>1.1</v>
+      </c>
+      <c r="Y15">
+        <v>1.2</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>59.5</v>
+      </c>
+      <c r="AB15">
+        <v>59.7</v>
+      </c>
+      <c r="AC15">
+        <v>60.3</v>
+      </c>
+      <c r="AD15">
+        <v>60.5</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0.02</v>
+      </c>
+      <c r="AG15">
+        <v>0.02</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>863</v>
+        <v>909</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>863</v>
+        <v>909</v>
       </c>
       <c r="E16">
         <v>127</v>
       </c>
       <c r="F16">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>156.06</v>
+      </c>
+      <c r="H16">
         <v>60</v>
       </c>
-      <c r="G16">
-        <v>0.1</v>
-      </c>
-      <c r="H16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>999</v>
+      </c>
+      <c r="N16">
+        <v>-999</v>
+      </c>
+      <c r="O16">
+        <v>999</v>
+      </c>
+      <c r="P16">
+        <v>0.8</v>
+      </c>
+      <c r="Q16">
+        <v>1.1</v>
+      </c>
+      <c r="R16">
+        <v>-1</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>999</v>
+      </c>
+      <c r="V16">
+        <v>0.88</v>
+      </c>
+      <c r="W16">
+        <v>0.9</v>
+      </c>
+      <c r="X16">
+        <v>1.1</v>
+      </c>
+      <c r="Y16">
+        <v>1.2</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>59.5</v>
+      </c>
+      <c r="AB16">
+        <v>59.7</v>
+      </c>
+      <c r="AC16">
+        <v>60.3</v>
+      </c>
+      <c r="AD16">
+        <v>60.5</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0.02</v>
+      </c>
+      <c r="AG16">
+        <v>0.02</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>864</v>
+        <v>910</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>864</v>
+        <v>910</v>
       </c>
       <c r="E17">
         <v>135</v>
       </c>
       <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>535.6799999999999</v>
+      </c>
+      <c r="H17">
         <v>60</v>
       </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>999</v>
+      </c>
+      <c r="N17">
+        <v>-999</v>
+      </c>
+      <c r="O17">
+        <v>999</v>
+      </c>
+      <c r="P17">
+        <v>0.8</v>
+      </c>
+      <c r="Q17">
+        <v>1.1</v>
+      </c>
+      <c r="R17">
+        <v>-1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>999</v>
+      </c>
+      <c r="V17">
+        <v>0.88</v>
+      </c>
+      <c r="W17">
+        <v>0.9</v>
+      </c>
+      <c r="X17">
+        <v>1.1</v>
+      </c>
+      <c r="Y17">
+        <v>1.2</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>59.5</v>
+      </c>
+      <c r="AB17">
+        <v>59.7</v>
+      </c>
+      <c r="AC17">
+        <v>60.3</v>
+      </c>
+      <c r="AD17">
+        <v>60.5</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0.02</v>
+      </c>
+      <c r="AG17">
+        <v>0.02</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>865</v>
+        <v>911</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>865</v>
+        <v>911</v>
       </c>
       <c r="E18">
         <v>136</v>
       </c>
       <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>535.6799999999999</v>
+      </c>
+      <c r="H18">
         <v>60</v>
       </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>999</v>
+      </c>
+      <c r="N18">
+        <v>-999</v>
+      </c>
+      <c r="O18">
+        <v>999</v>
+      </c>
+      <c r="P18">
+        <v>0.8</v>
+      </c>
+      <c r="Q18">
+        <v>1.1</v>
+      </c>
+      <c r="R18">
+        <v>-1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>999</v>
+      </c>
+      <c r="V18">
+        <v>0.88</v>
+      </c>
+      <c r="W18">
+        <v>0.9</v>
+      </c>
+      <c r="X18">
+        <v>1.1</v>
+      </c>
+      <c r="Y18">
+        <v>1.2</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>59.5</v>
+      </c>
+      <c r="AB18">
+        <v>59.7</v>
+      </c>
+      <c r="AC18">
+        <v>60.3</v>
+      </c>
+      <c r="AD18">
+        <v>60.5</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0.02</v>
+      </c>
+      <c r="AG18">
+        <v>0.02</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>866</v>
+        <v>912</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>866</v>
+        <v>912</v>
       </c>
       <c r="E19">
         <v>151</v>
       </c>
       <c r="F19">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>6.48</v>
+      </c>
+      <c r="H19">
         <v>60</v>
       </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
-      <c r="H19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>999</v>
+      </c>
+      <c r="N19">
+        <v>-999</v>
+      </c>
+      <c r="O19">
+        <v>999</v>
+      </c>
+      <c r="P19">
+        <v>0.8</v>
+      </c>
+      <c r="Q19">
+        <v>1.1</v>
+      </c>
+      <c r="R19">
+        <v>-1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>999</v>
+      </c>
+      <c r="V19">
+        <v>0.88</v>
+      </c>
+      <c r="W19">
+        <v>0.9</v>
+      </c>
+      <c r="X19">
+        <v>1.1</v>
+      </c>
+      <c r="Y19">
+        <v>1.2</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>59.5</v>
+      </c>
+      <c r="AB19">
+        <v>59.7</v>
+      </c>
+      <c r="AC19">
+        <v>60.3</v>
+      </c>
+      <c r="AD19">
+        <v>60.5</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0.02</v>
+      </c>
+      <c r="AG19">
+        <v>0.02</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>867</v>
+        <v>913</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>867</v>
+        <v>913</v>
       </c>
       <c r="E20">
         <v>152</v>
       </c>
       <c r="F20">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>92.67</v>
+      </c>
+      <c r="H20">
         <v>60</v>
       </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-      <c r="H20">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>999</v>
+      </c>
+      <c r="N20">
+        <v>-999</v>
+      </c>
+      <c r="O20">
+        <v>999</v>
+      </c>
+      <c r="P20">
+        <v>0.8</v>
+      </c>
+      <c r="Q20">
+        <v>1.1</v>
+      </c>
+      <c r="R20">
+        <v>-1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>999</v>
+      </c>
+      <c r="V20">
+        <v>0.88</v>
+      </c>
+      <c r="W20">
+        <v>0.9</v>
+      </c>
+      <c r="X20">
+        <v>1.1</v>
+      </c>
+      <c r="Y20">
+        <v>1.2</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>59.5</v>
+      </c>
+      <c r="AB20">
+        <v>59.7</v>
+      </c>
+      <c r="AC20">
+        <v>60.3</v>
+      </c>
+      <c r="AD20">
+        <v>60.5</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0.02</v>
+      </c>
+      <c r="AG20">
+        <v>0.02</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>868</v>
+        <v>914</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>868</v>
+        <v>914</v>
       </c>
       <c r="E21">
         <v>153</v>
       </c>
       <c r="F21">
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <v>92.67</v>
+      </c>
+      <c r="H21">
         <v>60</v>
       </c>
-      <c r="G21">
-        <v>0.1</v>
-      </c>
-      <c r="H21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>999</v>
+      </c>
+      <c r="N21">
+        <v>-999</v>
+      </c>
+      <c r="O21">
+        <v>999</v>
+      </c>
+      <c r="P21">
+        <v>0.8</v>
+      </c>
+      <c r="Q21">
+        <v>1.1</v>
+      </c>
+      <c r="R21">
+        <v>-1</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>999</v>
+      </c>
+      <c r="V21">
+        <v>0.88</v>
+      </c>
+      <c r="W21">
+        <v>0.9</v>
+      </c>
+      <c r="X21">
+        <v>1.1</v>
+      </c>
+      <c r="Y21">
+        <v>1.2</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>59.5</v>
+      </c>
+      <c r="AB21">
+        <v>59.7</v>
+      </c>
+      <c r="AC21">
+        <v>60.3</v>
+      </c>
+      <c r="AD21">
+        <v>60.5</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0.02</v>
+      </c>
+      <c r="AG21">
+        <v>0.02</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>869</v>
+        <v>915</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>869</v>
+        <v>915</v>
       </c>
       <c r="E22">
         <v>154</v>
       </c>
       <c r="F22">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>92.67</v>
+      </c>
+      <c r="H22">
         <v>60</v>
       </c>
-      <c r="G22">
-        <v>0.1</v>
-      </c>
-      <c r="H22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>999</v>
+      </c>
+      <c r="N22">
+        <v>-999</v>
+      </c>
+      <c r="O22">
+        <v>999</v>
+      </c>
+      <c r="P22">
+        <v>0.8</v>
+      </c>
+      <c r="Q22">
+        <v>1.1</v>
+      </c>
+      <c r="R22">
+        <v>-1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>999</v>
+      </c>
+      <c r="V22">
+        <v>0.88</v>
+      </c>
+      <c r="W22">
+        <v>0.9</v>
+      </c>
+      <c r="X22">
+        <v>1.1</v>
+      </c>
+      <c r="Y22">
+        <v>1.2</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>59.5</v>
+      </c>
+      <c r="AB22">
+        <v>59.7</v>
+      </c>
+      <c r="AC22">
+        <v>60.3</v>
+      </c>
+      <c r="AD22">
+        <v>60.5</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0.02</v>
+      </c>
+      <c r="AG22">
+        <v>0.02</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>870</v>
+        <v>916</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>870</v>
+        <v>916</v>
       </c>
       <c r="E23">
         <v>155</v>
       </c>
       <c r="F23">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>92.67</v>
+      </c>
+      <c r="H23">
         <v>60</v>
       </c>
-      <c r="G23">
-        <v>0.1</v>
-      </c>
-      <c r="H23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>871</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>871</v>
-      </c>
-      <c r="E24">
-        <v>76</v>
-      </c>
-      <c r="F24">
-        <v>60</v>
-      </c>
-      <c r="G24">
-        <v>0.1</v>
-      </c>
-      <c r="H24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>872</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>872</v>
-      </c>
-      <c r="E25">
-        <v>183</v>
-      </c>
-      <c r="F25">
-        <v>60</v>
-      </c>
-      <c r="G25">
-        <v>0.1</v>
-      </c>
-      <c r="H25">
-        <v>0.1</v>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>999</v>
+      </c>
+      <c r="N23">
+        <v>-999</v>
+      </c>
+      <c r="O23">
+        <v>999</v>
+      </c>
+      <c r="P23">
+        <v>0.8</v>
+      </c>
+      <c r="Q23">
+        <v>1.1</v>
+      </c>
+      <c r="R23">
+        <v>-1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>999</v>
+      </c>
+      <c r="V23">
+        <v>0.88</v>
+      </c>
+      <c r="W23">
+        <v>0.9</v>
+      </c>
+      <c r="X23">
+        <v>1.1</v>
+      </c>
+      <c r="Y23">
+        <v>1.2</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>59.5</v>
+      </c>
+      <c r="AB23">
+        <v>59.7</v>
+      </c>
+      <c r="AC23">
+        <v>60.3</v>
+      </c>
+      <c r="AD23">
+        <v>60.5</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0.02</v>
+      </c>
+      <c r="AG23">
+        <v>0.02</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17032,7 +19407,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17041,7 +19416,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -17064,2734 +19439,362 @@
         <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>898</v>
-      </c>
       <c r="AK1" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+        <v>844</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>900</v>
+        <v>923</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>900</v>
+        <v>923</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>180.48</v>
+        <v>4.8</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.2</v>
+        <v>60</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>999</v>
+      </c>
+      <c r="N2">
+        <v>-999</v>
+      </c>
+      <c r="O2">
+        <v>999</v>
+      </c>
+      <c r="P2">
         <v>0.8</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
+      <c r="Q2">
+        <v>1.1</v>
+      </c>
+      <c r="R2">
+        <v>-1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>999</v>
+      </c>
+      <c r="V2">
+        <v>0.88</v>
+      </c>
+      <c r="W2">
+        <v>0.9</v>
+      </c>
+      <c r="X2">
+        <v>1.1</v>
+      </c>
+      <c r="Y2">
+        <v>1.2</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>59.5</v>
+      </c>
+      <c r="AB2">
+        <v>59.7</v>
+      </c>
+      <c r="AC2">
+        <v>60.3</v>
+      </c>
+      <c r="AD2">
+        <v>60.5</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0.02</v>
+      </c>
+      <c r="AG2">
+        <v>0.02</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>0.5</v>
+      </c>
+      <c r="AO2">
+        <v>4.8</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>924</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>924</v>
+      </c>
+      <c r="E3">
+        <v>183</v>
+      </c>
+      <c r="F3">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>31.92</v>
+      </c>
+      <c r="H3">
         <v>60</v>
       </c>
-      <c r="N2">
-        <v>75</v>
-      </c>
-      <c r="O2">
-        <v>-75</v>
-      </c>
-      <c r="P2">
-        <v>0.033</v>
-      </c>
-      <c r="Q2">
-        <v>0.045</v>
-      </c>
-      <c r="R2">
-        <v>0.005</v>
-      </c>
-      <c r="S2">
-        <v>0.005</v>
-      </c>
-      <c r="T2">
-        <v>500</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>3</v>
-      </c>
-      <c r="W2">
-        <v>10</v>
-      </c>
-      <c r="X2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>999</v>
       </c>
-      <c r="Y2">
+      <c r="N3">
         <v>-999</v>
       </c>
-      <c r="Z2">
-        <v>5</v>
-      </c>
-      <c r="AA2">
-        <v>30</v>
-      </c>
-      <c r="AB2">
+      <c r="O3">
         <v>999</v>
       </c>
-      <c r="AC2">
-        <v>-999</v>
-      </c>
-      <c r="AD2">
-        <v>0.1</v>
-      </c>
-      <c r="AE2">
-        <v>1.5</v>
-      </c>
-      <c r="AF2">
-        <v>0.025</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>0.15</v>
-      </c>
-      <c r="AJ2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>901</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>901</v>
-      </c>
-      <c r="E3">
-        <v>68</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>33.5</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.2</v>
-      </c>
-      <c r="J3">
+      <c r="P3">
         <v>0.8</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>60</v>
-      </c>
-      <c r="N3">
-        <v>75</v>
-      </c>
-      <c r="O3">
-        <v>-75</v>
-      </c>
-      <c r="P3">
-        <v>0.033</v>
-      </c>
       <c r="Q3">
-        <v>0.045</v>
+        <v>1.1</v>
       </c>
       <c r="R3">
-        <v>0.005</v>
+        <v>-1</v>
       </c>
       <c r="S3">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>0.88</v>
       </c>
       <c r="W3">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="X3">
-        <v>999</v>
+        <v>1.1</v>
       </c>
       <c r="Y3">
-        <v>-999</v>
+        <v>1.2</v>
       </c>
       <c r="Z3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>30</v>
+        <v>59.5</v>
       </c>
       <c r="AB3">
-        <v>999</v>
+        <v>59.7</v>
       </c>
       <c r="AC3">
-        <v>-999</v>
+        <v>60.3</v>
       </c>
       <c r="AD3">
-        <v>0.1</v>
+        <v>60.5</v>
       </c>
       <c r="AE3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="AH3">
         <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>902</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>902</v>
-      </c>
-      <c r="E4">
-        <v>69</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>33.5</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.2</v>
-      </c>
-      <c r="J4">
-        <v>0.8</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>60</v>
-      </c>
-      <c r="N4">
-        <v>75</v>
-      </c>
-      <c r="O4">
-        <v>-75</v>
-      </c>
-      <c r="P4">
-        <v>0.033</v>
-      </c>
-      <c r="Q4">
-        <v>0.045</v>
-      </c>
-      <c r="R4">
-        <v>0.005</v>
-      </c>
-      <c r="S4">
-        <v>0.005</v>
-      </c>
-      <c r="T4">
-        <v>500</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <v>10</v>
-      </c>
-      <c r="X4">
-        <v>999</v>
-      </c>
-      <c r="Y4">
-        <v>-999</v>
-      </c>
-      <c r="Z4">
-        <v>5</v>
-      </c>
-      <c r="AA4">
-        <v>30</v>
-      </c>
-      <c r="AB4">
-        <v>999</v>
-      </c>
-      <c r="AC4">
-        <v>-999</v>
-      </c>
-      <c r="AD4">
-        <v>0.1</v>
-      </c>
-      <c r="AE4">
-        <v>1.5</v>
-      </c>
-      <c r="AF4">
-        <v>0.025</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>0.15</v>
-      </c>
-      <c r="AJ4">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>903</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>903</v>
-      </c>
-      <c r="E5">
-        <v>70</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>33.5</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.2</v>
-      </c>
-      <c r="J5">
-        <v>0.8</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>60</v>
-      </c>
-      <c r="N5">
-        <v>75</v>
-      </c>
-      <c r="O5">
-        <v>-75</v>
-      </c>
-      <c r="P5">
-        <v>0.033</v>
-      </c>
-      <c r="Q5">
-        <v>0.045</v>
-      </c>
-      <c r="R5">
-        <v>0.005</v>
-      </c>
-      <c r="S5">
-        <v>0.005</v>
-      </c>
-      <c r="T5">
-        <v>500</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>3</v>
-      </c>
-      <c r="W5">
-        <v>10</v>
-      </c>
-      <c r="X5">
-        <v>999</v>
-      </c>
-      <c r="Y5">
-        <v>-999</v>
-      </c>
-      <c r="Z5">
-        <v>5</v>
-      </c>
-      <c r="AA5">
-        <v>30</v>
-      </c>
-      <c r="AB5">
-        <v>999</v>
-      </c>
-      <c r="AC5">
-        <v>-999</v>
-      </c>
-      <c r="AD5">
-        <v>0.1</v>
-      </c>
-      <c r="AE5">
-        <v>1.5</v>
-      </c>
-      <c r="AF5">
-        <v>0.025</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>0.15</v>
-      </c>
-      <c r="AJ5">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>904</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>904</v>
-      </c>
-      <c r="E6">
-        <v>71</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>33.5</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.2</v>
-      </c>
-      <c r="J6">
-        <v>0.8</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>60</v>
-      </c>
-      <c r="N6">
-        <v>75</v>
-      </c>
-      <c r="O6">
-        <v>-75</v>
-      </c>
-      <c r="P6">
-        <v>0.033</v>
-      </c>
-      <c r="Q6">
-        <v>0.045</v>
-      </c>
-      <c r="R6">
-        <v>0.005</v>
-      </c>
-      <c r="S6">
-        <v>0.005</v>
-      </c>
-      <c r="T6">
-        <v>500</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>3</v>
-      </c>
-      <c r="W6">
-        <v>10</v>
-      </c>
-      <c r="X6">
-        <v>999</v>
-      </c>
-      <c r="Y6">
-        <v>-999</v>
-      </c>
-      <c r="Z6">
-        <v>5</v>
-      </c>
-      <c r="AA6">
-        <v>30</v>
-      </c>
-      <c r="AB6">
-        <v>999</v>
-      </c>
-      <c r="AC6">
-        <v>-999</v>
-      </c>
-      <c r="AD6">
-        <v>0.1</v>
-      </c>
-      <c r="AE6">
-        <v>1.5</v>
-      </c>
-      <c r="AF6">
-        <v>0.025</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>0.15</v>
-      </c>
-      <c r="AJ6">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>905</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>905</v>
-      </c>
-      <c r="E7">
-        <v>72</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>33.5</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.2</v>
-      </c>
-      <c r="J7">
-        <v>0.8</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>60</v>
-      </c>
-      <c r="N7">
-        <v>75</v>
-      </c>
-      <c r="O7">
-        <v>-75</v>
-      </c>
-      <c r="P7">
-        <v>0.033</v>
-      </c>
-      <c r="Q7">
-        <v>0.045</v>
-      </c>
-      <c r="R7">
-        <v>0.005</v>
-      </c>
-      <c r="S7">
-        <v>0.005</v>
-      </c>
-      <c r="T7">
-        <v>500</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7">
-        <v>10</v>
-      </c>
-      <c r="X7">
-        <v>999</v>
-      </c>
-      <c r="Y7">
-        <v>-999</v>
-      </c>
-      <c r="Z7">
-        <v>5</v>
-      </c>
-      <c r="AA7">
-        <v>30</v>
-      </c>
-      <c r="AB7">
-        <v>999</v>
-      </c>
-      <c r="AC7">
-        <v>-999</v>
-      </c>
-      <c r="AD7">
-        <v>0.1</v>
-      </c>
-      <c r="AE7">
-        <v>1.5</v>
-      </c>
-      <c r="AF7">
-        <v>0.025</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <v>0.15</v>
-      </c>
-      <c r="AJ7">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>906</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>906</v>
-      </c>
-      <c r="E8">
-        <v>73</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>33.5</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0.2</v>
-      </c>
-      <c r="J8">
-        <v>0.8</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>60</v>
-      </c>
-      <c r="N8">
-        <v>75</v>
-      </c>
-      <c r="O8">
-        <v>-75</v>
-      </c>
-      <c r="P8">
-        <v>0.033</v>
-      </c>
-      <c r="Q8">
-        <v>0.045</v>
-      </c>
-      <c r="R8">
-        <v>0.005</v>
-      </c>
-      <c r="S8">
-        <v>0.005</v>
-      </c>
-      <c r="T8">
-        <v>500</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>3</v>
-      </c>
-      <c r="W8">
-        <v>10</v>
-      </c>
-      <c r="X8">
-        <v>999</v>
-      </c>
-      <c r="Y8">
-        <v>-999</v>
-      </c>
-      <c r="Z8">
-        <v>5</v>
-      </c>
-      <c r="AA8">
-        <v>30</v>
-      </c>
-      <c r="AB8">
-        <v>999</v>
-      </c>
-      <c r="AC8">
-        <v>-999</v>
-      </c>
-      <c r="AD8">
-        <v>0.1</v>
-      </c>
-      <c r="AE8">
-        <v>1.5</v>
-      </c>
-      <c r="AF8">
-        <v>0.025</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-      <c r="AH8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>0.15</v>
-      </c>
-      <c r="AJ8">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>907</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>907</v>
-      </c>
-      <c r="E9">
-        <v>104</v>
-      </c>
-      <c r="F9">
-        <v>22</v>
-      </c>
-      <c r="G9">
-        <v>118.8</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0.2</v>
-      </c>
-      <c r="J9">
-        <v>0.8</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>60</v>
-      </c>
-      <c r="N9">
-        <v>75</v>
-      </c>
-      <c r="O9">
-        <v>-75</v>
-      </c>
-      <c r="P9">
-        <v>0.033</v>
-      </c>
-      <c r="Q9">
-        <v>0.045</v>
-      </c>
-      <c r="R9">
-        <v>0.005</v>
-      </c>
-      <c r="S9">
-        <v>0.005</v>
-      </c>
-      <c r="T9">
-        <v>500</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
-      <c r="W9">
-        <v>10</v>
-      </c>
-      <c r="X9">
-        <v>999</v>
-      </c>
-      <c r="Y9">
-        <v>-999</v>
-      </c>
-      <c r="Z9">
-        <v>5</v>
-      </c>
-      <c r="AA9">
-        <v>30</v>
-      </c>
-      <c r="AB9">
-        <v>999</v>
-      </c>
-      <c r="AC9">
-        <v>-999</v>
-      </c>
-      <c r="AD9">
-        <v>0.1</v>
-      </c>
-      <c r="AE9">
-        <v>1.5</v>
-      </c>
-      <c r="AF9">
-        <v>0.025</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
-        <v>0.15</v>
-      </c>
-      <c r="AJ9">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>908</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>908</v>
-      </c>
-      <c r="E10">
-        <v>105</v>
-      </c>
-      <c r="F10">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>237.6</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0.2</v>
-      </c>
-      <c r="J10">
-        <v>0.8</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>60</v>
-      </c>
-      <c r="N10">
-        <v>75</v>
-      </c>
-      <c r="O10">
-        <v>-75</v>
-      </c>
-      <c r="P10">
-        <v>0.033</v>
-      </c>
-      <c r="Q10">
-        <v>0.045</v>
-      </c>
-      <c r="R10">
-        <v>0.005</v>
-      </c>
-      <c r="S10">
-        <v>0.005</v>
-      </c>
-      <c r="T10">
-        <v>500</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>3</v>
-      </c>
-      <c r="W10">
-        <v>10</v>
-      </c>
-      <c r="X10">
-        <v>999</v>
-      </c>
-      <c r="Y10">
-        <v>-999</v>
-      </c>
-      <c r="Z10">
-        <v>5</v>
-      </c>
-      <c r="AA10">
-        <v>30</v>
-      </c>
-      <c r="AB10">
-        <v>999</v>
-      </c>
-      <c r="AC10">
-        <v>-999</v>
-      </c>
-      <c r="AD10">
-        <v>0.1</v>
-      </c>
-      <c r="AE10">
-        <v>1.5</v>
-      </c>
-      <c r="AF10">
-        <v>0.025</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AI10">
-        <v>0.15</v>
-      </c>
-      <c r="AJ10">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>909</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>909</v>
-      </c>
-      <c r="E11">
-        <v>114</v>
-      </c>
-      <c r="F11">
-        <v>24</v>
-      </c>
-      <c r="G11">
-        <v>2.04</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0.2</v>
-      </c>
-      <c r="J11">
-        <v>0.8</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>60</v>
-      </c>
-      <c r="N11">
-        <v>75</v>
-      </c>
-      <c r="O11">
-        <v>-75</v>
-      </c>
-      <c r="P11">
-        <v>0.033</v>
-      </c>
-      <c r="Q11">
-        <v>0.045</v>
-      </c>
-      <c r="R11">
-        <v>0.005</v>
-      </c>
-      <c r="S11">
-        <v>0.005</v>
-      </c>
-      <c r="T11">
-        <v>500</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
-      <c r="W11">
-        <v>10</v>
-      </c>
-      <c r="X11">
-        <v>999</v>
-      </c>
-      <c r="Y11">
-        <v>-999</v>
-      </c>
-      <c r="Z11">
-        <v>5</v>
-      </c>
-      <c r="AA11">
-        <v>30</v>
-      </c>
-      <c r="AB11">
-        <v>999</v>
-      </c>
-      <c r="AC11">
-        <v>-999</v>
-      </c>
-      <c r="AD11">
-        <v>0.1</v>
-      </c>
-      <c r="AE11">
-        <v>1.5</v>
-      </c>
-      <c r="AF11">
-        <v>0.025</v>
-      </c>
-      <c r="AG11">
-        <v>1</v>
-      </c>
-      <c r="AH11">
-        <v>1</v>
-      </c>
-      <c r="AI11">
-        <v>0.15</v>
-      </c>
-      <c r="AJ11">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>910</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>910</v>
-      </c>
-      <c r="E12">
-        <v>115</v>
-      </c>
-      <c r="F12">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>180</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0.2</v>
-      </c>
-      <c r="J12">
-        <v>0.8</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>60</v>
-      </c>
-      <c r="N12">
-        <v>75</v>
-      </c>
-      <c r="O12">
-        <v>-75</v>
-      </c>
-      <c r="P12">
-        <v>0.033</v>
-      </c>
-      <c r="Q12">
-        <v>0.045</v>
-      </c>
-      <c r="R12">
-        <v>0.005</v>
-      </c>
-      <c r="S12">
-        <v>0.005</v>
-      </c>
-      <c r="T12">
-        <v>500</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>3</v>
-      </c>
-      <c r="W12">
-        <v>10</v>
-      </c>
-      <c r="X12">
-        <v>999</v>
-      </c>
-      <c r="Y12">
-        <v>-999</v>
-      </c>
-      <c r="Z12">
-        <v>5</v>
-      </c>
-      <c r="AA12">
-        <v>30</v>
-      </c>
-      <c r="AB12">
-        <v>999</v>
-      </c>
-      <c r="AC12">
-        <v>-999</v>
-      </c>
-      <c r="AD12">
-        <v>0.1</v>
-      </c>
-      <c r="AE12">
-        <v>1.5</v>
-      </c>
-      <c r="AF12">
-        <v>0.025</v>
-      </c>
-      <c r="AG12">
-        <v>1</v>
-      </c>
-      <c r="AH12">
-        <v>1</v>
-      </c>
-      <c r="AI12">
-        <v>0.15</v>
-      </c>
-      <c r="AJ12">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>911</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>911</v>
-      </c>
-      <c r="E13">
-        <v>147</v>
-      </c>
-      <c r="F13">
-        <v>31</v>
-      </c>
-      <c r="G13">
-        <v>120.6</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0.2</v>
-      </c>
-      <c r="J13">
-        <v>0.8</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>60</v>
-      </c>
-      <c r="N13">
-        <v>75</v>
-      </c>
-      <c r="O13">
-        <v>-75</v>
-      </c>
-      <c r="P13">
-        <v>0.033</v>
-      </c>
-      <c r="Q13">
-        <v>0.045</v>
-      </c>
-      <c r="R13">
-        <v>0.005</v>
-      </c>
-      <c r="S13">
-        <v>0.005</v>
-      </c>
-      <c r="T13">
-        <v>500</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>3</v>
-      </c>
-      <c r="W13">
-        <v>10</v>
-      </c>
-      <c r="X13">
-        <v>999</v>
-      </c>
-      <c r="Y13">
-        <v>-999</v>
-      </c>
-      <c r="Z13">
-        <v>5</v>
-      </c>
-      <c r="AA13">
-        <v>30</v>
-      </c>
-      <c r="AB13">
-        <v>999</v>
-      </c>
-      <c r="AC13">
-        <v>-999</v>
-      </c>
-      <c r="AD13">
-        <v>0.1</v>
-      </c>
-      <c r="AE13">
-        <v>1.5</v>
-      </c>
-      <c r="AF13">
-        <v>0.025</v>
-      </c>
-      <c r="AG13">
-        <v>1</v>
-      </c>
-      <c r="AH13">
-        <v>1</v>
-      </c>
-      <c r="AI13">
-        <v>0.15</v>
-      </c>
-      <c r="AJ13">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>912</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>912</v>
-      </c>
-      <c r="E14">
-        <v>125</v>
-      </c>
-      <c r="F14">
-        <v>26</v>
-      </c>
-      <c r="G14">
-        <v>156.06</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.2</v>
-      </c>
-      <c r="J14">
-        <v>0.8</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>60</v>
-      </c>
-      <c r="N14">
-        <v>75</v>
-      </c>
-      <c r="O14">
-        <v>-75</v>
-      </c>
-      <c r="P14">
-        <v>0.033</v>
-      </c>
-      <c r="Q14">
-        <v>0.045</v>
-      </c>
-      <c r="R14">
-        <v>0.005</v>
-      </c>
-      <c r="S14">
-        <v>0.005</v>
-      </c>
-      <c r="T14">
-        <v>500</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>3</v>
-      </c>
-      <c r="W14">
-        <v>10</v>
-      </c>
-      <c r="X14">
-        <v>999</v>
-      </c>
-      <c r="Y14">
-        <v>-999</v>
-      </c>
-      <c r="Z14">
-        <v>5</v>
-      </c>
-      <c r="AA14">
-        <v>30</v>
-      </c>
-      <c r="AB14">
-        <v>999</v>
-      </c>
-      <c r="AC14">
-        <v>-999</v>
-      </c>
-      <c r="AD14">
-        <v>0.1</v>
-      </c>
-      <c r="AE14">
-        <v>1.5</v>
-      </c>
-      <c r="AF14">
-        <v>0.025</v>
-      </c>
-      <c r="AG14">
-        <v>1</v>
-      </c>
-      <c r="AH14">
-        <v>1</v>
-      </c>
-      <c r="AI14">
-        <v>0.15</v>
-      </c>
-      <c r="AJ14">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>913</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>913</v>
-      </c>
-      <c r="E15">
-        <v>126</v>
-      </c>
-      <c r="F15">
-        <v>27</v>
-      </c>
-      <c r="G15">
-        <v>156.06</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0.2</v>
-      </c>
-      <c r="J15">
-        <v>0.8</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>60</v>
-      </c>
-      <c r="N15">
-        <v>75</v>
-      </c>
-      <c r="O15">
-        <v>-75</v>
-      </c>
-      <c r="P15">
-        <v>0.033</v>
-      </c>
-      <c r="Q15">
-        <v>0.045</v>
-      </c>
-      <c r="R15">
-        <v>0.005</v>
-      </c>
-      <c r="S15">
-        <v>0.005</v>
-      </c>
-      <c r="T15">
-        <v>500</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>3</v>
-      </c>
-      <c r="W15">
-        <v>10</v>
-      </c>
-      <c r="X15">
-        <v>999</v>
-      </c>
-      <c r="Y15">
-        <v>-999</v>
-      </c>
-      <c r="Z15">
-        <v>5</v>
-      </c>
-      <c r="AA15">
-        <v>30</v>
-      </c>
-      <c r="AB15">
-        <v>999</v>
-      </c>
-      <c r="AC15">
-        <v>-999</v>
-      </c>
-      <c r="AD15">
-        <v>0.1</v>
-      </c>
-      <c r="AE15">
-        <v>1.5</v>
-      </c>
-      <c r="AF15">
-        <v>0.025</v>
-      </c>
-      <c r="AG15">
-        <v>1</v>
-      </c>
-      <c r="AH15">
-        <v>1</v>
-      </c>
-      <c r="AI15">
-        <v>0.15</v>
-      </c>
-      <c r="AJ15">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>914</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>914</v>
-      </c>
-      <c r="E16">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>28</v>
-      </c>
-      <c r="G16">
-        <v>156.06</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0.2</v>
-      </c>
-      <c r="J16">
-        <v>0.8</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>60</v>
-      </c>
-      <c r="N16">
-        <v>75</v>
-      </c>
-      <c r="O16">
-        <v>-75</v>
-      </c>
-      <c r="P16">
-        <v>0.033</v>
-      </c>
-      <c r="Q16">
-        <v>0.045</v>
-      </c>
-      <c r="R16">
-        <v>0.005</v>
-      </c>
-      <c r="S16">
-        <v>0.005</v>
-      </c>
-      <c r="T16">
-        <v>500</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>3</v>
-      </c>
-      <c r="W16">
-        <v>10</v>
-      </c>
-      <c r="X16">
-        <v>999</v>
-      </c>
-      <c r="Y16">
-        <v>-999</v>
-      </c>
-      <c r="Z16">
-        <v>5</v>
-      </c>
-      <c r="AA16">
-        <v>30</v>
-      </c>
-      <c r="AB16">
-        <v>999</v>
-      </c>
-      <c r="AC16">
-        <v>-999</v>
-      </c>
-      <c r="AD16">
-        <v>0.1</v>
-      </c>
-      <c r="AE16">
-        <v>1.5</v>
-      </c>
-      <c r="AF16">
-        <v>0.025</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <v>1</v>
-      </c>
-      <c r="AI16">
-        <v>0.15</v>
-      </c>
-      <c r="AJ16">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>915</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>915</v>
-      </c>
-      <c r="E17">
-        <v>135</v>
-      </c>
-      <c r="F17">
-        <v>29</v>
-      </c>
-      <c r="G17">
-        <v>535.6799999999999</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0.2</v>
-      </c>
-      <c r="J17">
-        <v>0.8</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>60</v>
-      </c>
-      <c r="N17">
-        <v>75</v>
-      </c>
-      <c r="O17">
-        <v>-75</v>
-      </c>
-      <c r="P17">
-        <v>0.033</v>
-      </c>
-      <c r="Q17">
-        <v>0.045</v>
-      </c>
-      <c r="R17">
-        <v>0.005</v>
-      </c>
-      <c r="S17">
-        <v>0.005</v>
-      </c>
-      <c r="T17">
-        <v>500</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>3</v>
-      </c>
-      <c r="W17">
-        <v>10</v>
-      </c>
-      <c r="X17">
-        <v>999</v>
-      </c>
-      <c r="Y17">
-        <v>-999</v>
-      </c>
-      <c r="Z17">
-        <v>5</v>
-      </c>
-      <c r="AA17">
-        <v>30</v>
-      </c>
-      <c r="AB17">
-        <v>999</v>
-      </c>
-      <c r="AC17">
-        <v>-999</v>
-      </c>
-      <c r="AD17">
-        <v>0.1</v>
-      </c>
-      <c r="AE17">
-        <v>1.5</v>
-      </c>
-      <c r="AF17">
-        <v>0.025</v>
-      </c>
-      <c r="AG17">
-        <v>1</v>
-      </c>
-      <c r="AH17">
-        <v>1</v>
-      </c>
-      <c r="AI17">
-        <v>0.15</v>
-      </c>
-      <c r="AJ17">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>916</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>916</v>
-      </c>
-      <c r="E18">
-        <v>136</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <v>535.6799999999999</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0.2</v>
-      </c>
-      <c r="J18">
-        <v>0.8</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>60</v>
-      </c>
-      <c r="N18">
-        <v>75</v>
-      </c>
-      <c r="O18">
-        <v>-75</v>
-      </c>
-      <c r="P18">
-        <v>0.033</v>
-      </c>
-      <c r="Q18">
-        <v>0.045</v>
-      </c>
-      <c r="R18">
-        <v>0.005</v>
-      </c>
-      <c r="S18">
-        <v>0.005</v>
-      </c>
-      <c r="T18">
-        <v>500</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>3</v>
-      </c>
-      <c r="W18">
-        <v>10</v>
-      </c>
-      <c r="X18">
-        <v>999</v>
-      </c>
-      <c r="Y18">
-        <v>-999</v>
-      </c>
-      <c r="Z18">
-        <v>5</v>
-      </c>
-      <c r="AA18">
-        <v>30</v>
-      </c>
-      <c r="AB18">
-        <v>999</v>
-      </c>
-      <c r="AC18">
-        <v>-999</v>
-      </c>
-      <c r="AD18">
-        <v>0.1</v>
-      </c>
-      <c r="AE18">
-        <v>1.5</v>
-      </c>
-      <c r="AF18">
-        <v>0.025</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
-      </c>
-      <c r="AI18">
-        <v>0.15</v>
-      </c>
-      <c r="AJ18">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>917</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>917</v>
-      </c>
-      <c r="E19">
-        <v>151</v>
-      </c>
-      <c r="F19">
-        <v>32</v>
-      </c>
-      <c r="G19">
-        <v>6.48</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0.2</v>
-      </c>
-      <c r="J19">
-        <v>0.8</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>60</v>
-      </c>
-      <c r="N19">
-        <v>75</v>
-      </c>
-      <c r="O19">
-        <v>-75</v>
-      </c>
-      <c r="P19">
-        <v>0.033</v>
-      </c>
-      <c r="Q19">
-        <v>0.045</v>
-      </c>
-      <c r="R19">
-        <v>0.005</v>
-      </c>
-      <c r="S19">
-        <v>0.005</v>
-      </c>
-      <c r="T19">
-        <v>500</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>3</v>
-      </c>
-      <c r="W19">
-        <v>10</v>
-      </c>
-      <c r="X19">
-        <v>999</v>
-      </c>
-      <c r="Y19">
-        <v>-999</v>
-      </c>
-      <c r="Z19">
-        <v>5</v>
-      </c>
-      <c r="AA19">
-        <v>30</v>
-      </c>
-      <c r="AB19">
-        <v>999</v>
-      </c>
-      <c r="AC19">
-        <v>-999</v>
-      </c>
-      <c r="AD19">
-        <v>0.1</v>
-      </c>
-      <c r="AE19">
-        <v>1.5</v>
-      </c>
-      <c r="AF19">
-        <v>0.025</v>
-      </c>
-      <c r="AG19">
-        <v>1</v>
-      </c>
-      <c r="AH19">
-        <v>1</v>
-      </c>
-      <c r="AI19">
-        <v>0.15</v>
-      </c>
-      <c r="AJ19">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>918</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>918</v>
-      </c>
-      <c r="E20">
-        <v>152</v>
-      </c>
-      <c r="F20">
-        <v>33</v>
-      </c>
-      <c r="G20">
-        <v>92.67</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0.2</v>
-      </c>
-      <c r="J20">
-        <v>0.8</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>60</v>
-      </c>
-      <c r="N20">
-        <v>75</v>
-      </c>
-      <c r="O20">
-        <v>-75</v>
-      </c>
-      <c r="P20">
-        <v>0.033</v>
-      </c>
-      <c r="Q20">
-        <v>0.045</v>
-      </c>
-      <c r="R20">
-        <v>0.005</v>
-      </c>
-      <c r="S20">
-        <v>0.005</v>
-      </c>
-      <c r="T20">
-        <v>500</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>3</v>
-      </c>
-      <c r="W20">
-        <v>10</v>
-      </c>
-      <c r="X20">
-        <v>999</v>
-      </c>
-      <c r="Y20">
-        <v>-999</v>
-      </c>
-      <c r="Z20">
-        <v>5</v>
-      </c>
-      <c r="AA20">
-        <v>30</v>
-      </c>
-      <c r="AB20">
-        <v>999</v>
-      </c>
-      <c r="AC20">
-        <v>-999</v>
-      </c>
-      <c r="AD20">
-        <v>0.1</v>
-      </c>
-      <c r="AE20">
-        <v>1.5</v>
-      </c>
-      <c r="AF20">
-        <v>0.025</v>
-      </c>
-      <c r="AG20">
-        <v>1</v>
-      </c>
-      <c r="AH20">
-        <v>1</v>
-      </c>
-      <c r="AI20">
-        <v>0.15</v>
-      </c>
-      <c r="AJ20">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>919</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>919</v>
-      </c>
-      <c r="E21">
-        <v>153</v>
-      </c>
-      <c r="F21">
-        <v>34</v>
-      </c>
-      <c r="G21">
-        <v>92.67</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0.2</v>
-      </c>
-      <c r="J21">
-        <v>0.8</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>60</v>
-      </c>
-      <c r="N21">
-        <v>75</v>
-      </c>
-      <c r="O21">
-        <v>-75</v>
-      </c>
-      <c r="P21">
-        <v>0.033</v>
-      </c>
-      <c r="Q21">
-        <v>0.045</v>
-      </c>
-      <c r="R21">
-        <v>0.005</v>
-      </c>
-      <c r="S21">
-        <v>0.005</v>
-      </c>
-      <c r="T21">
-        <v>500</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>3</v>
-      </c>
-      <c r="W21">
-        <v>10</v>
-      </c>
-      <c r="X21">
-        <v>999</v>
-      </c>
-      <c r="Y21">
-        <v>-999</v>
-      </c>
-      <c r="Z21">
-        <v>5</v>
-      </c>
-      <c r="AA21">
-        <v>30</v>
-      </c>
-      <c r="AB21">
-        <v>999</v>
-      </c>
-      <c r="AC21">
-        <v>-999</v>
-      </c>
-      <c r="AD21">
-        <v>0.1</v>
-      </c>
-      <c r="AE21">
-        <v>1.5</v>
-      </c>
-      <c r="AF21">
-        <v>0.025</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AH21">
-        <v>1</v>
-      </c>
-      <c r="AI21">
-        <v>0.15</v>
-      </c>
-      <c r="AJ21">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>920</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>920</v>
-      </c>
-      <c r="E22">
-        <v>154</v>
-      </c>
-      <c r="F22">
-        <v>35</v>
-      </c>
-      <c r="G22">
-        <v>92.67</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0.2</v>
-      </c>
-      <c r="J22">
-        <v>0.8</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>60</v>
-      </c>
-      <c r="N22">
-        <v>75</v>
-      </c>
-      <c r="O22">
-        <v>-75</v>
-      </c>
-      <c r="P22">
-        <v>0.033</v>
-      </c>
-      <c r="Q22">
-        <v>0.045</v>
-      </c>
-      <c r="R22">
-        <v>0.005</v>
-      </c>
-      <c r="S22">
-        <v>0.005</v>
-      </c>
-      <c r="T22">
-        <v>500</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>3</v>
-      </c>
-      <c r="W22">
-        <v>10</v>
-      </c>
-      <c r="X22">
-        <v>999</v>
-      </c>
-      <c r="Y22">
-        <v>-999</v>
-      </c>
-      <c r="Z22">
-        <v>5</v>
-      </c>
-      <c r="AA22">
-        <v>30</v>
-      </c>
-      <c r="AB22">
-        <v>999</v>
-      </c>
-      <c r="AC22">
-        <v>-999</v>
-      </c>
-      <c r="AD22">
-        <v>0.1</v>
-      </c>
-      <c r="AE22">
-        <v>1.5</v>
-      </c>
-      <c r="AF22">
-        <v>0.025</v>
-      </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AH22">
-        <v>1</v>
-      </c>
-      <c r="AI22">
-        <v>0.15</v>
-      </c>
-      <c r="AJ22">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>921</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>921</v>
-      </c>
-      <c r="E23">
-        <v>155</v>
-      </c>
-      <c r="F23">
-        <v>36</v>
-      </c>
-      <c r="G23">
-        <v>92.67</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0.2</v>
-      </c>
-      <c r="J23">
-        <v>0.8</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>60</v>
-      </c>
-      <c r="N23">
-        <v>75</v>
-      </c>
-      <c r="O23">
-        <v>-75</v>
-      </c>
-      <c r="P23">
-        <v>0.033</v>
-      </c>
-      <c r="Q23">
-        <v>0.045</v>
-      </c>
-      <c r="R23">
-        <v>0.005</v>
-      </c>
-      <c r="S23">
-        <v>0.005</v>
-      </c>
-      <c r="T23">
-        <v>500</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>3</v>
-      </c>
-      <c r="W23">
-        <v>10</v>
-      </c>
-      <c r="X23">
-        <v>999</v>
-      </c>
-      <c r="Y23">
-        <v>-999</v>
-      </c>
-      <c r="Z23">
-        <v>5</v>
-      </c>
-      <c r="AA23">
-        <v>30</v>
-      </c>
-      <c r="AB23">
-        <v>999</v>
-      </c>
-      <c r="AC23">
-        <v>-999</v>
-      </c>
-      <c r="AD23">
-        <v>0.1</v>
-      </c>
-      <c r="AE23">
-        <v>1.5</v>
-      </c>
-      <c r="AF23">
-        <v>0.025</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23">
-        <v>1</v>
-      </c>
-      <c r="AI23">
-        <v>0.15</v>
-      </c>
-      <c r="AJ23">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>922</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>922</v>
-      </c>
-      <c r="E24">
-        <v>76</v>
-      </c>
-      <c r="F24">
-        <v>14</v>
-      </c>
-      <c r="G24">
-        <v>4.8</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0.2</v>
-      </c>
-      <c r="J24">
-        <v>0.8</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>60</v>
-      </c>
-      <c r="N24">
-        <v>75</v>
-      </c>
-      <c r="O24">
-        <v>-75</v>
-      </c>
-      <c r="P24">
-        <v>0.033</v>
-      </c>
-      <c r="Q24">
-        <v>0.045</v>
-      </c>
-      <c r="R24">
-        <v>0.005</v>
-      </c>
-      <c r="S24">
-        <v>0.005</v>
-      </c>
-      <c r="T24">
-        <v>500</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>3</v>
-      </c>
-      <c r="W24">
-        <v>10</v>
-      </c>
-      <c r="X24">
-        <v>999</v>
-      </c>
-      <c r="Y24">
-        <v>-999</v>
-      </c>
-      <c r="Z24">
-        <v>5</v>
-      </c>
-      <c r="AA24">
-        <v>30</v>
-      </c>
-      <c r="AB24">
-        <v>999</v>
-      </c>
-      <c r="AC24">
-        <v>-999</v>
-      </c>
-      <c r="AD24">
-        <v>0.1</v>
-      </c>
-      <c r="AE24">
-        <v>1.5</v>
-      </c>
-      <c r="AF24">
-        <v>0.025</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
-        <v>1</v>
-      </c>
-      <c r="AI24">
-        <v>0.15</v>
-      </c>
-      <c r="AJ24">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>923</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>923</v>
-      </c>
-      <c r="E25">
-        <v>183</v>
-      </c>
-      <c r="F25">
-        <v>46</v>
-      </c>
-      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>0.5</v>
+      </c>
+      <c r="AO3">
         <v>31.92</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0.2</v>
-      </c>
-      <c r="J25">
-        <v>0.8</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>60</v>
-      </c>
-      <c r="N25">
-        <v>75</v>
-      </c>
-      <c r="O25">
-        <v>-75</v>
-      </c>
-      <c r="P25">
-        <v>0.033</v>
-      </c>
-      <c r="Q25">
-        <v>0.045</v>
-      </c>
-      <c r="R25">
-        <v>0.005</v>
-      </c>
-      <c r="S25">
-        <v>0.005</v>
-      </c>
-      <c r="T25">
-        <v>500</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>3</v>
-      </c>
-      <c r="W25">
-        <v>10</v>
-      </c>
-      <c r="X25">
-        <v>999</v>
-      </c>
-      <c r="Y25">
-        <v>-999</v>
-      </c>
-      <c r="Z25">
-        <v>5</v>
-      </c>
-      <c r="AA25">
-        <v>30</v>
-      </c>
-      <c r="AB25">
-        <v>999</v>
-      </c>
-      <c r="AC25">
-        <v>-999</v>
-      </c>
-      <c r="AD25">
-        <v>0.1</v>
-      </c>
-      <c r="AE25">
-        <v>1.5</v>
-      </c>
-      <c r="AF25">
-        <v>0.025</v>
-      </c>
-      <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AH25">
-        <v>1</v>
-      </c>
-      <c r="AI25">
-        <v>0.15</v>
-      </c>
-      <c r="AJ25">
-        <v>0.11</v>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
